--- a/Datos/Anuario2024/110201_PersonalMunicipal.xlsx
+++ b/Datos/Anuario2024/110201_PersonalMunicipal.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 graf1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="3 graf1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="4" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="5" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="5 graf1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="6" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="7" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="8" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="0" sheetId="12" r:id="rId1"/>
+    <sheet name="1" sheetId="13" r:id="rId2"/>
+    <sheet name="1 graf1" sheetId="19" r:id="rId3"/>
+    <sheet name="2" sheetId="14" r:id="rId4"/>
+    <sheet name="3" sheetId="15" r:id="rId5"/>
+    <sheet name="3 graf1" sheetId="41" r:id="rId6"/>
+    <sheet name="4" sheetId="16" r:id="rId7"/>
+    <sheet name="5" sheetId="20" r:id="rId8"/>
+    <sheet name="5 graf1" sheetId="42" r:id="rId9"/>
+    <sheet name="6" sheetId="21" r:id="rId10"/>
+    <sheet name="7" sheetId="84" r:id="rId11"/>
+    <sheet name="8" sheetId="83" r:id="rId12"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId13"/>
@@ -126,6 +132,9 @@
     <definedName name="_R8_4">#REF!</definedName>
     <definedName name="_R8_5">#REF!</definedName>
     <definedName name="a">'[3]1.1'!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'1 graf1'!$A$1:$C$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'3 graf1'!$A$1:$B$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'5 graf1'!$A$1:$B$24</definedName>
     <definedName name="b">#REF!</definedName>
     <definedName name="BLA">#REF!</definedName>
     <definedName name="gd">'[3]2.21'!$A$1:$G$50</definedName>
@@ -133,106 +142,369 @@
     <definedName name="n">'[3]1.1'!$A$1:$I$38</definedName>
     <definedName name="p">'[4]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[4]4.17'!$A$1:$I$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'1 graf1'!$A$1:$C$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'3 graf1'!$A$1:$B$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'5 graf1'!$A$1:$B$24</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="87">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt; 25</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>35-39</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>Personal laboral</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Alcaldía</t>
+  </si>
+  <si>
+    <t>Edad media</t>
+  </si>
+  <si>
+    <t>Funcionariado de carrera</t>
+  </si>
+  <si>
+    <t>Funcionariado interino</t>
+  </si>
+  <si>
+    <t>Personal Funcionario de carrera</t>
+  </si>
+  <si>
+    <t>Personal Funcionario interino</t>
+  </si>
+  <si>
+    <t>Pleno</t>
+  </si>
+  <si>
+    <t>Dirección Intermedia</t>
+  </si>
+  <si>
+    <t>Dirección Operativa</t>
+  </si>
+  <si>
+    <t>Dirección Superior</t>
+  </si>
+  <si>
+    <t>Personal Administrativo</t>
+  </si>
+  <si>
+    <t>Personal Oficios</t>
+  </si>
+  <si>
+    <t>Personal Seguridad Pública</t>
+  </si>
+  <si>
+    <t>Personal Subalterno y Otros</t>
+  </si>
+  <si>
+    <t>Personal Técnico</t>
+  </si>
+  <si>
+    <t>Personal Técnico Auxiliar</t>
+  </si>
+  <si>
+    <t>Menos de 1 año</t>
+  </si>
+  <si>
+    <t>1 a 4 años</t>
+  </si>
+  <si>
+    <t>5 a 9 años</t>
+  </si>
+  <si>
+    <t>10 a 19 años</t>
+  </si>
+  <si>
+    <t>20 años o más</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Funcionario de empleo</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>Fuente: Elaboración Oficina de Estadística a partir del fichero de personal municipal. Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t>Fuente:Elaboración Oficina de Estadística a partir del fichero de personal municipal. Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t>Personal Funcionario de empleo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;= 65</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Personal Laboral</t>
+  </si>
+  <si>
+    <t>PERSONAL MUNICIPAL</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>1. Personal Municipal según estructura de edad y sexo. 2024</t>
+  </si>
+  <si>
+    <t>Nota: Personal Municipal a 1 de juliol de 2024</t>
+  </si>
+  <si>
+    <t>Nota: Personal Municipal a 1 de julio de 2024</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Recuento</t>
+  </si>
+  <si>
+    <t>% del N de columna</t>
+  </si>
+  <si>
+    <t>EDAD_REC</t>
+  </si>
+  <si>
+    <t>1. Menor 25</t>
+  </si>
+  <si>
+    <t>2. 25-29</t>
+  </si>
+  <si>
+    <t>3. 30-34</t>
+  </si>
+  <si>
+    <t>4. 35-39</t>
+  </si>
+  <si>
+    <t>5. 40-44</t>
+  </si>
+  <si>
+    <t>6. 45-49</t>
+  </si>
+  <si>
+    <t>7. 50-54</t>
+  </si>
+  <si>
+    <t>8. 55-59</t>
+  </si>
+  <si>
+    <t>9. 60-64</t>
+  </si>
+  <si>
+    <t>2. Personal municipal según área. 2024</t>
+  </si>
+  <si>
+    <t>Cultura, Educación, Deportes y Fallas</t>
+  </si>
+  <si>
+    <t>Hacienda y Participación</t>
+  </si>
+  <si>
+    <t>Ocupación, Formación y Emprendimiento</t>
+  </si>
+  <si>
+    <t>Urbanismo, Vivienda y Licencias</t>
+  </si>
+  <si>
+    <t>Bienestar Social</t>
+  </si>
+  <si>
+    <t>Familia, Mayores y Tradiciones</t>
+  </si>
+  <si>
+    <t>Parques, Jardines y Espacios Naturales</t>
+  </si>
+  <si>
+    <t>Seguridad y Movilidad</t>
+  </si>
+  <si>
+    <t>Residuos, Mejora Climática y Gestión del Agua</t>
+  </si>
+  <si>
+    <t>Patrimonio, Recursos Humanos y Técnicos</t>
+  </si>
+  <si>
+    <t>Prevención y extinción de incendios</t>
+  </si>
+  <si>
+    <t>Policía local</t>
+  </si>
+  <si>
+    <t>3. Personal municipal según grupo de titulación del puesto de trabajo. 2024</t>
+  </si>
+  <si>
+    <t>4. Personal municipal según vinculación laboral. 2024</t>
+  </si>
+  <si>
+    <t>5. Personal municipal según área y grupo de titulación del puesto de trabajo. 2024</t>
+  </si>
+  <si>
+    <t>Nota: FE: Funcionario de empleo, PL: Personal laboral. Personal Municipal a 1 de julio de 2024</t>
+  </si>
+  <si>
+    <t>6. Personal municipal según área y vinculación laboral. 2024</t>
+  </si>
+  <si>
+    <t>7. Personal municipal según antigüedad y sexo. 2024</t>
+  </si>
+  <si>
+    <t>8. Personal municipal según rol profesional del puesto de trabajo y sexo. 2024</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -270,148 +542,128 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="7"/>
     <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="6"/>
+    <cellStyle name="Normal 5" xfId="5"/>
     <cellStyle name="Porcentaje" xfId="4" builtinId="5"/>
-    <cellStyle name="Normal 5" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="6"/>
-    <cellStyle name="Normal 2 2" xfId="7"/>
     <cellStyle name="Porcentaje 2" xfId="8"/>
     <cellStyle name="style1595592910070" xfId="9"/>
+    <cellStyle name="style1595592910101" xfId="11"/>
     <cellStyle name="style1595592910148" xfId="10"/>
-    <cellStyle name="style1595592910101" xfId="11"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -480,13 +732,261 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFF9F3C7"/>
+      <color rgb="FFCC9900"/>
+      <color rgb="FFFAC090"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>673596</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>130671</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1045071" y="192405"/>
+          <a:ext cx="4505325" cy="2981325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="297180" y="546735"/>
+          <a:ext cx="6019800" cy="2524125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4764405</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="144780" y="259080"/>
+          <a:ext cx="4991100" cy="2847975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4903470</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5121" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="236220" y="232410"/>
+          <a:ext cx="5038725" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2144,8 +2644,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -13833,7 +14333,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -17628,8 +18128,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -19811,8 +20311,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -20808,3999 +21308,3548 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja12">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="11.42578125" customWidth="1" style="2" min="3" max="16"/>
+    <col min="3" max="16" width="11.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>PERSONAL MUNICIPAL</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="2" customFormat="1" s="2"/>
-    <row r="3" customFormat="1" s="2"/>
-    <row r="4" customFormat="1" s="2"/>
-    <row r="5" customFormat="1" s="2"/>
-    <row r="6" customFormat="1" s="2"/>
-    <row r="7" customFormat="1" s="2"/>
-    <row r="8" customFormat="1" s="2"/>
-    <row r="9" customFormat="1" s="2"/>
-    <row r="10" customFormat="1" s="2"/>
-    <row r="11" customFormat="1" s="2"/>
-    <row r="12" customFormat="1" s="2"/>
-    <row r="13" customFormat="1" s="2"/>
-    <row r="14" customFormat="1" s="2"/>
-    <row r="15" customFormat="1" s="2"/>
-    <row r="16" customFormat="1" s="2"/>
-    <row r="17" customFormat="1" s="2"/>
-    <row r="18" customFormat="1" s="2"/>
-    <row r="19" customFormat="1" s="2"/>
-    <row r="20" customFormat="1" s="2"/>
-    <row r="21" customFormat="1" s="2"/>
-    <row r="22" customFormat="1" s="2"/>
-    <row r="23" customFormat="1" s="2"/>
-    <row r="24" customFormat="1" s="2"/>
-    <row r="25" customFormat="1" s="2"/>
-    <row r="26" customFormat="1" s="2"/>
-    <row r="27" customFormat="1" s="2"/>
-    <row r="28" customFormat="1" s="2"/>
-    <row r="29" customFormat="1" s="2"/>
-    <row r="30" customFormat="1" s="2"/>
-    <row r="31" customFormat="1" s="2"/>
-    <row r="32" customFormat="1" s="2"/>
-    <row r="33" customFormat="1" s="2"/>
-    <row r="34" customFormat="1" s="2"/>
-    <row r="35" customFormat="1" s="2"/>
-    <row r="36" customFormat="1" s="2"/>
-    <row r="37" customFormat="1" s="2"/>
-    <row r="38" customFormat="1" s="2"/>
-    <row r="39" customFormat="1" s="2"/>
-    <row r="40" customFormat="1" s="2"/>
-    <row r="41" customFormat="1" s="2"/>
-    <row r="42" customFormat="1" s="2"/>
-    <row r="43" customFormat="1" s="2"/>
-    <row r="44" customFormat="1" s="2"/>
-    <row r="45" customFormat="1" s="2"/>
-    <row r="46" customFormat="1" s="2"/>
-    <row r="47" customFormat="1" s="2"/>
-    <row r="48" customFormat="1" s="2"/>
-    <row r="49" customFormat="1" s="2"/>
-    <row r="50" customFormat="1" s="2"/>
-    <row r="51" customFormat="1" s="2"/>
-    <row r="52" customFormat="1" s="2"/>
-    <row r="53" customFormat="1" s="2"/>
-    <row r="54" customFormat="1" s="2"/>
-    <row r="55" customFormat="1" s="2"/>
-    <row r="56" customFormat="1" s="2"/>
-    <row r="57" customFormat="1" s="2"/>
-    <row r="58" customFormat="1" s="2"/>
-    <row r="59" customFormat="1" s="2"/>
-    <row r="60" customFormat="1" s="2"/>
-    <row r="61" customFormat="1" s="2"/>
-    <row r="62" customFormat="1" s="2"/>
-    <row r="63" customFormat="1" s="2"/>
-    <row r="64" customFormat="1" s="2"/>
-    <row r="65" customFormat="1" s="2"/>
-    <row r="66" customFormat="1" s="2"/>
-    <row r="67" customFormat="1" s="2"/>
-    <row r="68" customFormat="1" s="2"/>
-    <row r="69" customFormat="1" s="2"/>
-    <row r="70" customFormat="1" s="2"/>
-    <row r="71" customFormat="1" s="2"/>
-    <row r="72" customFormat="1" s="2"/>
-    <row r="73" customFormat="1" s="2"/>
-    <row r="74" customFormat="1" s="2"/>
-    <row r="75" customFormat="1" s="2"/>
-    <row r="76" customFormat="1" s="2"/>
-    <row r="77" customFormat="1" s="2"/>
-    <row r="78" customFormat="1" s="2"/>
-    <row r="79" customFormat="1" s="2"/>
-    <row r="80" customFormat="1" s="2"/>
-    <row r="81" customFormat="1" s="2"/>
-    <row r="82" customFormat="1" s="2"/>
-    <row r="83" customFormat="1" s="2"/>
-    <row r="84" customFormat="1" s="2"/>
-    <row r="85" customFormat="1" s="2"/>
-    <row r="86" customFormat="1" s="2"/>
-    <row r="87" customFormat="1" s="2"/>
-    <row r="88" customFormat="1" s="2"/>
-    <row r="89" customFormat="1" s="2"/>
-    <row r="90" customFormat="1" s="2"/>
-    <row r="91" customFormat="1" s="2"/>
-    <row r="92" customFormat="1" s="2"/>
-    <row r="93" customFormat="1" s="2"/>
-    <row r="94" customFormat="1" s="2"/>
-    <row r="95" customFormat="1" s="2"/>
-    <row r="96" customFormat="1" s="2"/>
-    <row r="97" customFormat="1" s="2"/>
-    <row r="98" customFormat="1" s="2"/>
-    <row r="99" customFormat="1" s="2"/>
-    <row r="100" customFormat="1" s="2"/>
-    <row r="101" customFormat="1" s="2"/>
-    <row r="102" customFormat="1" s="2"/>
-    <row r="103" customFormat="1" s="2"/>
-    <row r="104" customFormat="1" s="2"/>
-    <row r="105" customFormat="1" s="2"/>
-    <row r="106" customFormat="1" s="2"/>
-    <row r="107" customFormat="1" s="2"/>
-    <row r="108" customFormat="1" s="2"/>
-    <row r="109" customFormat="1" s="2"/>
+    <row r="2" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja21">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
-    <col width="12.42578125" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="6"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>6. Personal municipal según área y vinculación laboral. 2024</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="n"/>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="7" t="n"/>
-      <c r="F1" s="7" t="n"/>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="7" t="n"/>
-      <c r="C2" s="7" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="7" t="n"/>
-      <c r="F2" s="7" t="n"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
-    <row r="3" ht="43.15" customHeight="1">
-      <c r="A3" s="47" t="n"/>
-      <c r="B3" s="19" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="19" t="inlineStr">
-        <is>
-          <t>Personal Funcionario de carrera</t>
-        </is>
-      </c>
-      <c r="D3" s="19" t="inlineStr">
-        <is>
-          <t>Personal Funcionario de empleo</t>
-        </is>
-      </c>
-      <c r="E3" s="19" t="inlineStr">
-        <is>
-          <t>Personal Funcionario interino</t>
-        </is>
-      </c>
-      <c r="F3" s="19" t="inlineStr">
-        <is>
-          <t>Personal laboral</t>
-        </is>
+    <row r="3" spans="1:7" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="44" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="42" t="n">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="42">
         <v>5810</v>
       </c>
-      <c r="C4" s="42" t="n">
+      <c r="C4" s="42">
         <v>3366</v>
       </c>
-      <c r="D4" s="42" t="n">
+      <c r="D4" s="42">
         <v>57</v>
       </c>
-      <c r="E4" s="42" t="n">
+      <c r="E4" s="42">
         <v>1796</v>
       </c>
-      <c r="F4" s="42" t="n">
+      <c r="F4" s="42">
         <v>591</v>
       </c>
-      <c r="G4" s="34" t="n"/>
+      <c r="G4" s="34"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>Alcaldía</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="n">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="15">
         <v>214</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="15">
         <v>119</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="15">
         <v>0</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" s="15">
         <v>70</v>
       </c>
-      <c r="F5" s="15" t="n">
+      <c r="F5" s="15">
         <v>25</v>
       </c>
-      <c r="G5" s="34" t="n"/>
+      <c r="G5" s="34"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>Cultura, Educación, Deportes y Fallas</t>
-        </is>
-      </c>
-      <c r="B6" s="16" t="n">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="5">
         <v>834</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="5">
         <v>345</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="5">
         <v>425</v>
       </c>
-      <c r="F6" s="16" t="n">
+      <c r="F6" s="5">
         <v>64</v>
       </c>
-      <c r="G6" s="34" t="n"/>
+      <c r="G6" s="34"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>Hacienda y Participación</t>
-        </is>
-      </c>
-      <c r="B7" s="15" t="n">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="15">
         <v>597</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="15">
         <v>228</v>
       </c>
-      <c r="D7" s="15" t="n">
+      <c r="D7" s="15">
         <v>0</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="15">
         <v>279</v>
       </c>
-      <c r="F7" s="15" t="n">
+      <c r="F7" s="15">
         <v>90</v>
       </c>
-      <c r="G7" s="34" t="n"/>
+      <c r="G7" s="34"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>Ocupación, Formación y Emprendimiento</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="n">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="5">
         <v>134</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="5">
         <v>14</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="5">
         <v>14</v>
       </c>
-      <c r="F8" s="16" t="n">
+      <c r="F8" s="5">
         <v>106</v>
       </c>
-      <c r="G8" s="34" t="n"/>
+      <c r="G8" s="34"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="12" t="inlineStr">
-        <is>
-          <t>Urbanismo, Vivienda y Licencias</t>
-        </is>
-      </c>
-      <c r="B9" s="15" t="n">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="15">
         <v>301</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="C9" s="15">
         <v>129</v>
       </c>
-      <c r="D9" s="15" t="n">
+      <c r="D9" s="15">
         <v>0</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="15">
         <v>156</v>
       </c>
-      <c r="F9" s="15" t="n">
+      <c r="F9" s="15">
         <v>16</v>
       </c>
-      <c r="G9" s="34" t="n"/>
+      <c r="G9" s="34"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="9" t="inlineStr">
-        <is>
-          <t>Bienestar Social</t>
-        </is>
-      </c>
-      <c r="B10" s="16" t="n">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="5">
         <v>648</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="5">
         <v>183</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="5">
         <v>0</v>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="5">
         <v>406</v>
       </c>
-      <c r="F10" s="16" t="n">
+      <c r="F10" s="5">
         <v>59</v>
       </c>
-      <c r="G10" s="34" t="n"/>
+      <c r="G10" s="34"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="12" t="inlineStr">
-        <is>
-          <t>Familia, Mayores y Tradiciones</t>
-        </is>
-      </c>
-      <c r="B11" s="15" t="n">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="15">
         <v>224</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="15">
         <v>63</v>
       </c>
-      <c r="D11" s="15" t="n">
+      <c r="D11" s="15">
         <v>0</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E11" s="15">
         <v>64</v>
       </c>
-      <c r="F11" s="15" t="n">
+      <c r="F11" s="15">
         <v>97</v>
       </c>
-      <c r="G11" s="34" t="n"/>
+      <c r="G11" s="34"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>Parques, Jardines y Espacios Naturales</t>
-        </is>
-      </c>
-      <c r="B12" s="16" t="n">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="5">
         <v>99</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="5">
         <v>46</v>
       </c>
-      <c r="D12" s="16" t="n">
+      <c r="D12" s="5">
         <v>0</v>
       </c>
-      <c r="E12" s="16" t="n">
+      <c r="E12" s="5">
         <v>35</v>
       </c>
-      <c r="F12" s="16" t="n">
+      <c r="F12" s="5">
         <v>18</v>
       </c>
-      <c r="G12" s="34" t="n"/>
+      <c r="G12" s="34"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="12" t="inlineStr">
-        <is>
-          <t>Seguridad y Movilidad</t>
-        </is>
-      </c>
-      <c r="B13" s="15" t="n">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="15">
         <v>2161</v>
       </c>
-      <c r="C13" s="15" t="n">
+      <c r="C13" s="15">
         <v>2015</v>
       </c>
-      <c r="D13" s="15" t="n">
+      <c r="D13" s="15">
         <v>0</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="15">
         <v>128</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="15">
         <v>18</v>
       </c>
-      <c r="G13" s="34" t="n"/>
+      <c r="G13" s="34"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>Prevención y extinción de incendios</t>
-        </is>
-      </c>
-      <c r="B14" s="16" t="n">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="5">
         <v>466</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="5">
         <v>438</v>
       </c>
-      <c r="D14" s="16" t="n">
+      <c r="D14" s="5">
         <v>0</v>
       </c>
-      <c r="E14" s="16" t="n">
+      <c r="E14" s="5">
         <v>26</v>
       </c>
-      <c r="F14" s="16" t="n">
+      <c r="F14" s="5">
         <v>2</v>
       </c>
-      <c r="G14" s="34" t="n"/>
+      <c r="G14" s="34"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>Policía local</t>
-        </is>
-      </c>
-      <c r="B15" s="15" t="n">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="15">
         <v>1556</v>
       </c>
-      <c r="C15" s="15" t="n">
+      <c r="C15" s="15">
         <v>1525</v>
       </c>
-      <c r="D15" s="15" t="n">
+      <c r="D15" s="15">
         <v>0</v>
       </c>
-      <c r="E15" s="15" t="n">
+      <c r="E15" s="15">
         <v>23</v>
       </c>
-      <c r="F15" s="15" t="n">
+      <c r="F15" s="15">
         <v>8</v>
       </c>
-      <c r="G15" s="34" t="n"/>
+      <c r="G15" s="34"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="9" t="inlineStr">
-        <is>
-          <t>Patrimonio, Recursos Humanos y Técnicos</t>
-        </is>
-      </c>
-      <c r="B16" s="16" t="n">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="5">
         <v>393</v>
       </c>
-      <c r="C16" s="16" t="n">
+      <c r="C16" s="5">
         <v>141</v>
       </c>
-      <c r="D16" s="16" t="n">
+      <c r="D16" s="5">
         <v>0</v>
       </c>
-      <c r="E16" s="16" t="n">
+      <c r="E16" s="5">
         <v>161</v>
       </c>
-      <c r="F16" s="16" t="n">
+      <c r="F16" s="5">
         <v>91</v>
       </c>
-      <c r="G16" s="34" t="n"/>
+      <c r="G16" s="34"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="12" t="inlineStr">
-        <is>
-          <t>Residuos, Mejora Climática y Gestión del Agua</t>
-        </is>
-      </c>
-      <c r="B17" s="15" t="n">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="15">
         <v>95</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="15">
         <v>52</v>
       </c>
-      <c r="D17" s="15" t="n">
+      <c r="D17" s="15">
         <v>0</v>
       </c>
-      <c r="E17" s="15" t="n">
+      <c r="E17" s="15">
         <v>37</v>
       </c>
-      <c r="F17" s="15" t="n">
+      <c r="F17" s="15">
         <v>6</v>
       </c>
-      <c r="G17" s="34" t="n"/>
+      <c r="G17" s="34"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="9" t="inlineStr">
-        <is>
-          <t>Pleno</t>
-        </is>
-      </c>
-      <c r="B18" s="16" t="n">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5">
         <v>110</v>
       </c>
-      <c r="C18" s="16" t="n">
+      <c r="C18" s="5">
         <v>31</v>
       </c>
-      <c r="D18" s="16" t="n">
+      <c r="D18" s="5">
         <v>57</v>
       </c>
-      <c r="E18" s="16" t="n">
+      <c r="E18" s="5">
         <v>21</v>
       </c>
-      <c r="F18" s="16" t="n">
+      <c r="F18" s="5">
         <v>1</v>
       </c>
-      <c r="G18" s="34" t="n"/>
+      <c r="G18" s="34"/>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>Nota: Personal Municipal a 1 de julio de 2024</t>
-        </is>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Elaboración Oficina de Estadística a partir del fichero de personal municipal. Ayuntamiento de València.</t>
-        </is>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="97" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="14.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>7. Personal municipal según antigüedad y sexo. 2024</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="n"/>
-      <c r="C1" s="10" t="n"/>
-      <c r="D1" s="10" t="n"/>
-      <c r="E1" s="10" t="n"/>
-      <c r="F1" s="10" t="n"/>
-      <c r="G1" s="10" t="n"/>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="10" t="n"/>
-      <c r="C2" s="10" t="n"/>
-      <c r="D2" s="10" t="n"/>
-      <c r="E2" s="10" t="n"/>
-      <c r="F2" s="10" t="n"/>
-      <c r="G2" s="10" t="n"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="47" t="n"/>
-      <c r="B3" s="20" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="20" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D3" s="20" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="E3" s="14" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="F3" s="20" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="G3" s="20" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="42" t="n">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="42">
         <v>5810</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="40">
         <f>B4/$B$4</f>
-        <v/>
-      </c>
-      <c r="D4" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="42">
         <v>2962</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="40">
         <f>D4/$B$4</f>
-        <v/>
-      </c>
-      <c r="F4" s="42" t="n">
+        <v>0.50981067125645441</v>
+      </c>
+      <c r="F4" s="42">
         <v>2848</v>
       </c>
-      <c r="G4" s="49" t="n">
-        <v>0.5098106712564544</v>
+      <c r="G4" s="40">
+        <v>0.50981067125645441</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>Menos de 1 año</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="n">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="15">
         <v>641</v>
       </c>
-      <c r="C5" s="50">
-        <f>B5/$B$4</f>
-        <v/>
-      </c>
-      <c r="D5" s="15" t="n">
+      <c r="C5" s="23">
+        <f t="shared" ref="C5:E9" si="0">B5/$B$4</f>
+        <v>0.11032702237521515</v>
+      </c>
+      <c r="D5" s="15">
         <v>262</v>
       </c>
-      <c r="E5" s="50">
-        <f>D5/$B$4</f>
-        <v/>
-      </c>
-      <c r="F5" s="15" t="n">
+      <c r="E5" s="23">
+        <f t="shared" si="0"/>
+        <v>4.5094664371772807E-2</v>
+      </c>
+      <c r="F5" s="15">
         <v>379</v>
       </c>
-      <c r="G5" s="50" t="n">
-        <v>0.04509466437177281</v>
+      <c r="G5" s="23">
+        <v>4.5094664371772807E-2</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>1 a 4 años</t>
-        </is>
-      </c>
-      <c r="B6" s="16" t="n">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5">
         <v>1014</v>
       </c>
-      <c r="C6" s="51">
-        <f>B6/$B$4</f>
-        <v/>
-      </c>
-      <c r="D6" s="16" t="n">
+      <c r="C6" s="24">
+        <f t="shared" si="0"/>
+        <v>0.17452667814113598</v>
+      </c>
+      <c r="D6" s="5">
         <v>465</v>
       </c>
-      <c r="E6" s="51">
-        <f>D6/$B$4</f>
-        <v/>
-      </c>
-      <c r="F6" s="16" t="n">
+      <c r="E6" s="24">
+        <f t="shared" si="0"/>
+        <v>8.0034423407917388E-2</v>
+      </c>
+      <c r="F6" s="5">
         <v>549</v>
       </c>
-      <c r="G6" s="51" t="n">
-        <v>0.08003442340791739</v>
+      <c r="G6" s="24">
+        <v>8.0034423407917388E-2</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>5 a 9 años</t>
-        </is>
-      </c>
-      <c r="B7" s="15" t="n">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="15">
         <v>728</v>
       </c>
-      <c r="C7" s="50">
-        <f>B7/$B$4</f>
-        <v/>
-      </c>
-      <c r="D7" s="15" t="n">
+      <c r="C7" s="23">
+        <f t="shared" si="0"/>
+        <v>0.12530120481927712</v>
+      </c>
+      <c r="D7" s="15">
         <v>264</v>
       </c>
-      <c r="E7" s="50">
-        <f>D7/$B$4</f>
-        <v/>
-      </c>
-      <c r="F7" s="15" t="n">
+      <c r="E7" s="23">
+        <f t="shared" si="0"/>
+        <v>4.5438898450946646E-2</v>
+      </c>
+      <c r="F7" s="15">
         <v>464</v>
       </c>
-      <c r="G7" s="50" t="n">
-        <v>0.04543889845094665</v>
+      <c r="G7" s="23">
+        <v>4.5438898450946646E-2</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>10 a 19 años</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="n">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5">
         <v>982</v>
       </c>
-      <c r="C8" s="51">
-        <f>B8/$B$4</f>
-        <v/>
-      </c>
-      <c r="D8" s="16" t="n">
+      <c r="C8" s="24">
+        <f t="shared" si="0"/>
+        <v>0.16901893287435457</v>
+      </c>
+      <c r="D8" s="5">
         <v>607</v>
       </c>
-      <c r="E8" s="51">
-        <f>D8/$B$4</f>
-        <v/>
-      </c>
-      <c r="F8" s="16" t="n">
+      <c r="E8" s="24">
+        <f t="shared" si="0"/>
+        <v>0.1044750430292599</v>
+      </c>
+      <c r="F8" s="5">
         <v>375</v>
       </c>
-      <c r="G8" s="51" t="n">
+      <c r="G8" s="24">
         <v>0.1044750430292599</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="12" t="inlineStr">
-        <is>
-          <t>20 años o más</t>
-        </is>
-      </c>
-      <c r="B9" s="15" t="n">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="15">
         <v>2445</v>
       </c>
-      <c r="C9" s="50">
-        <f>B9/$B$4</f>
-        <v/>
-      </c>
-      <c r="D9" s="15" t="n">
+      <c r="C9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.42082616179001719</v>
+      </c>
+      <c r="D9" s="15">
         <v>1364</v>
       </c>
-      <c r="E9" s="50">
-        <f>D9/$B$4</f>
-        <v/>
-      </c>
-      <c r="F9" s="15" t="n">
+      <c r="E9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.23476764199655767</v>
+      </c>
+      <c r="F9" s="15">
         <v>1081</v>
       </c>
-      <c r="G9" s="50" t="n">
-        <v>0.2347676419965577</v>
+      <c r="G9" s="23">
+        <v>0.23476764199655767</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>Nota: Personal Municipal a 1 de julio de 2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="n"/>
-      <c r="E10" s="1" t="n"/>
-      <c r="F10" s="1" t="n"/>
-      <c r="G10" s="1" t="n"/>
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Elaboración Oficina de Estadística a partir del fichero de personal municipal. Ayuntamiento de València.</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
-      <c r="D11" s="1" t="n"/>
-      <c r="E11" s="1" t="n"/>
-      <c r="F11" s="1" t="n"/>
-      <c r="G11" s="1" t="n"/>
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
-      <c r="D12" s="1" t="n"/>
-      <c r="E12" s="1" t="n"/>
-      <c r="F12" s="1" t="n"/>
-      <c r="G12" s="1" t="n"/>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja5"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="30.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>8. Personal municipal según rol profesional del puesto de trabajo y sexo. 2024</t>
-        </is>
-      </c>
-      <c r="B1" s="27" t="n"/>
-      <c r="C1" s="10" t="n"/>
-      <c r="D1" s="10" t="n"/>
-      <c r="E1" s="10" t="n"/>
-      <c r="F1" s="10" t="n"/>
-      <c r="G1" s="10" t="n"/>
-      <c r="H1" s="10" t="n"/>
-      <c r="I1" s="10" t="n"/>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="10" t="n"/>
-      <c r="C2" s="10" t="n"/>
-      <c r="D2" s="10" t="n"/>
-      <c r="E2" s="10" t="n"/>
-      <c r="F2" s="10" t="n"/>
-      <c r="G2" s="10" t="n"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="47" t="n"/>
-      <c r="B3" s="20" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="20" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D3" s="20" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="E3" s="20" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="F3" s="20" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="G3" s="20" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="44" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="42" t="n">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="42">
         <v>5810</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="39">
         <f>B4/$B$4</f>
-        <v/>
-      </c>
-      <c r="D4" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="42">
         <v>2962</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="39">
         <f>D4/$B$4</f>
-        <v/>
-      </c>
-      <c r="F4" s="42" t="n">
+        <v>0.50981067125645441</v>
+      </c>
+      <c r="F4" s="42">
         <v>2848</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="39">
         <f>F4/$B$4</f>
-        <v/>
-      </c>
-      <c r="H4" s="34" t="n"/>
+        <v>0.49018932874354559</v>
+      </c>
+      <c r="H4" s="34"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>Dirección Superior</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="n">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="15">
         <v>74</v>
       </c>
-      <c r="C5" s="55">
-        <f>B5/$B$4</f>
-        <v/>
-      </c>
-      <c r="D5" s="15" t="n">
+      <c r="C5" s="22">
+        <f t="shared" ref="C5:E14" si="0">B5/$B$4</f>
+        <v>1.2736660929432014E-2</v>
+      </c>
+      <c r="D5" s="15">
         <v>47</v>
       </c>
-      <c r="E5" s="55">
-        <f>D5/$B$4</f>
-        <v/>
-      </c>
-      <c r="F5" s="15" t="n">
+      <c r="E5" s="22">
+        <f t="shared" si="0"/>
+        <v>8.0895008605851981E-3</v>
+      </c>
+      <c r="F5" s="15">
         <v>27</v>
       </c>
-      <c r="G5" s="55">
-        <f>F5/$B$4</f>
-        <v/>
-      </c>
-      <c r="H5" s="34" t="n"/>
+      <c r="G5" s="22">
+        <f t="shared" ref="G5" si="1">F5/$B$4</f>
+        <v>4.6471600688468154E-3</v>
+      </c>
+      <c r="H5" s="34"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>Dirección Intermedia</t>
-        </is>
-      </c>
-      <c r="B6" s="16" t="n">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5">
         <v>125</v>
       </c>
-      <c r="C6" s="57">
-        <f>B6/$B$4</f>
-        <v/>
-      </c>
-      <c r="D6" s="16" t="n">
+      <c r="C6" s="46">
+        <f t="shared" si="0"/>
+        <v>2.1514629948364887E-2</v>
+      </c>
+      <c r="D6" s="5">
         <v>51</v>
       </c>
-      <c r="E6" s="57">
-        <f>D6/$B$4</f>
-        <v/>
-      </c>
-      <c r="F6" s="16" t="n">
+      <c r="E6" s="46">
+        <f t="shared" si="0"/>
+        <v>8.7779690189328744E-3</v>
+      </c>
+      <c r="F6" s="5">
         <v>74</v>
       </c>
-      <c r="G6" s="57">
-        <f>F6/$B$4</f>
-        <v/>
-      </c>
-      <c r="H6" s="34" t="n"/>
+      <c r="G6" s="46">
+        <f t="shared" ref="G6" si="2">F6/$B$4</f>
+        <v>1.2736660929432014E-2</v>
+      </c>
+      <c r="H6" s="34"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>Dirección Operativa</t>
-        </is>
-      </c>
-      <c r="B7" s="15" t="n">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="15">
         <v>259</v>
       </c>
-      <c r="C7" s="55">
-        <f>B7/$B$4</f>
-        <v/>
-      </c>
-      <c r="D7" s="15" t="n">
+      <c r="C7" s="22">
+        <f t="shared" si="0"/>
+        <v>4.457831325301205E-2</v>
+      </c>
+      <c r="D7" s="15">
         <v>128</v>
       </c>
-      <c r="E7" s="55">
-        <f>D7/$B$4</f>
-        <v/>
-      </c>
-      <c r="F7" s="15" t="n">
+      <c r="E7" s="22">
+        <f t="shared" si="0"/>
+        <v>2.2030981067125647E-2</v>
+      </c>
+      <c r="F7" s="15">
         <v>131</v>
       </c>
-      <c r="G7" s="55">
-        <f>F7/$B$4</f>
-        <v/>
-      </c>
-      <c r="H7" s="34" t="n"/>
+      <c r="G7" s="22">
+        <f t="shared" ref="G7" si="3">F7/$B$4</f>
+        <v>2.2547332185886403E-2</v>
+      </c>
+      <c r="H7" s="34"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>Personal Técnico</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="n">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5">
         <v>1451</v>
       </c>
-      <c r="C8" s="57">
-        <f>B8/$B$4</f>
-        <v/>
-      </c>
-      <c r="D8" s="16" t="n">
+      <c r="C8" s="46">
+        <f t="shared" si="0"/>
+        <v>0.24974182444061963</v>
+      </c>
+      <c r="D8" s="5">
         <v>697</v>
       </c>
-      <c r="E8" s="57">
-        <f>D8/$B$4</f>
-        <v/>
-      </c>
-      <c r="F8" s="16" t="n">
+      <c r="E8" s="46">
+        <f t="shared" si="0"/>
+        <v>0.11996557659208261</v>
+      </c>
+      <c r="F8" s="5">
         <v>754</v>
       </c>
-      <c r="G8" s="57">
-        <f>F8/$B$4</f>
-        <v/>
-      </c>
-      <c r="H8" s="34" t="n"/>
+      <c r="G8" s="46">
+        <f t="shared" ref="G8" si="4">F8/$B$4</f>
+        <v>0.129776247848537</v>
+      </c>
+      <c r="H8" s="34"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="12" t="inlineStr">
-        <is>
-          <t>Personal Administrativo</t>
-        </is>
-      </c>
-      <c r="B9" s="15" t="n">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="15">
         <v>926</v>
       </c>
-      <c r="C9" s="55">
-        <f>B9/$B$4</f>
-        <v/>
-      </c>
-      <c r="D9" s="15" t="n">
+      <c r="C9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15938037865748708</v>
+      </c>
+      <c r="D9" s="15">
         <v>191</v>
       </c>
-      <c r="E9" s="55">
-        <f>D9/$B$4</f>
-        <v/>
-      </c>
-      <c r="F9" s="15" t="n">
+      <c r="E9" s="22">
+        <f t="shared" si="0"/>
+        <v>3.2874354561101549E-2</v>
+      </c>
+      <c r="F9" s="15">
         <v>735</v>
       </c>
-      <c r="G9" s="55">
-        <f>F9/$B$4</f>
-        <v/>
-      </c>
-      <c r="H9" s="34" t="n"/>
+      <c r="G9" s="22">
+        <f t="shared" ref="G9" si="5">F9/$B$4</f>
+        <v>0.12650602409638553</v>
+      </c>
+      <c r="H9" s="34"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="9" t="inlineStr">
-        <is>
-          <t>Personal Seguridad Pública</t>
-        </is>
-      </c>
-      <c r="B10" s="16" t="n">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5">
         <v>1567</v>
       </c>
-      <c r="C10" s="57">
-        <f>B10/$B$4</f>
-        <v/>
-      </c>
-      <c r="D10" s="16" t="n">
+      <c r="C10" s="46">
+        <f t="shared" si="0"/>
+        <v>0.26970740103270224</v>
+      </c>
+      <c r="D10" s="5">
         <v>1312</v>
       </c>
-      <c r="E10" s="57">
-        <f>D10/$B$4</f>
-        <v/>
-      </c>
-      <c r="F10" s="16" t="n">
+      <c r="E10" s="46">
+        <f t="shared" si="0"/>
+        <v>0.22581755593803787</v>
+      </c>
+      <c r="F10" s="5">
         <v>255</v>
       </c>
-      <c r="G10" s="57">
-        <f>F10/$B$4</f>
-        <v/>
-      </c>
-      <c r="H10" s="34" t="n"/>
+      <c r="G10" s="46">
+        <f t="shared" ref="G10" si="6">F10/$B$4</f>
+        <v>4.388984509466437E-2</v>
+      </c>
+      <c r="H10" s="34"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="12" t="inlineStr">
-        <is>
-          <t>Personal Técnico Auxiliar</t>
-        </is>
-      </c>
-      <c r="B11" s="15" t="n">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="15">
         <v>212</v>
       </c>
-      <c r="C11" s="55">
-        <f>B11/$B$4</f>
-        <v/>
-      </c>
-      <c r="D11" s="15" t="n">
+      <c r="C11" s="22">
+        <f t="shared" si="0"/>
+        <v>3.648881239242685E-2</v>
+      </c>
+      <c r="D11" s="15">
         <v>74</v>
       </c>
-      <c r="E11" s="55">
-        <f>D11/$B$4</f>
-        <v/>
-      </c>
-      <c r="F11" s="15" t="n">
+      <c r="E11" s="22">
+        <f t="shared" si="0"/>
+        <v>1.2736660929432014E-2</v>
+      </c>
+      <c r="F11" s="15">
         <v>138</v>
       </c>
-      <c r="G11" s="55">
-        <f>F11/$B$4</f>
-        <v/>
-      </c>
-      <c r="H11" s="34" t="n"/>
+      <c r="G11" s="22">
+        <f t="shared" ref="G11" si="7">F11/$B$4</f>
+        <v>2.3752151462994836E-2</v>
+      </c>
+      <c r="H11" s="34"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>Personal Oficios</t>
-        </is>
-      </c>
-      <c r="B12" s="16" t="n">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5">
         <v>22</v>
       </c>
-      <c r="C12" s="57">
-        <f>B12/$B$4</f>
-        <v/>
-      </c>
-      <c r="D12" s="16" t="n">
+      <c r="C12" s="46">
+        <f t="shared" si="0"/>
+        <v>3.7865748709122204E-3</v>
+      </c>
+      <c r="D12" s="5">
         <v>20</v>
       </c>
-      <c r="E12" s="57">
-        <f>D12/$B$4</f>
-        <v/>
-      </c>
-      <c r="F12" s="16" t="n">
+      <c r="E12" s="46">
+        <f t="shared" si="0"/>
+        <v>3.4423407917383822E-3</v>
+      </c>
+      <c r="F12" s="5">
         <v>2</v>
       </c>
-      <c r="G12" s="57">
-        <f>F12/$B$4</f>
-        <v/>
-      </c>
-      <c r="H12" s="34" t="n"/>
+      <c r="G12" s="46">
+        <f t="shared" ref="G12" si="8">F12/$B$4</f>
+        <v>3.4423407917383823E-4</v>
+      </c>
+      <c r="H12" s="34"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="12" t="inlineStr">
-        <is>
-          <t>Personal Subalterno y Otros</t>
-        </is>
-      </c>
-      <c r="B13" s="15" t="n">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="15">
         <v>583</v>
       </c>
-      <c r="C13" s="55">
-        <f>B13/$B$4</f>
-        <v/>
-      </c>
-      <c r="D13" s="15" t="n">
+      <c r="C13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.10034423407917384</v>
+      </c>
+      <c r="D13" s="15">
         <v>245</v>
       </c>
-      <c r="E13" s="55">
-        <f>D13/$B$4</f>
-        <v/>
-      </c>
-      <c r="F13" s="15" t="n">
+      <c r="E13" s="22">
+        <f t="shared" si="0"/>
+        <v>4.2168674698795178E-2</v>
+      </c>
+      <c r="F13" s="15">
         <v>338</v>
       </c>
-      <c r="G13" s="55">
-        <f>F13/$B$4</f>
-        <v/>
-      </c>
-      <c r="H13" s="34" t="n"/>
+      <c r="G13" s="22">
+        <f t="shared" ref="G13" si="9">F13/$B$4</f>
+        <v>5.8175559380378661E-2</v>
+      </c>
+      <c r="H13" s="34"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="9" t="inlineStr">
-        <is>
-          <t>Personal Laboral</t>
-        </is>
-      </c>
-      <c r="B14" s="16" t="n">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="5">
         <v>591</v>
       </c>
-      <c r="C14" s="57">
-        <f>B14/$B$4</f>
-        <v/>
-      </c>
-      <c r="D14" s="16" t="n">
+      <c r="C14" s="46">
+        <f t="shared" si="0"/>
+        <v>0.10172117039586918</v>
+      </c>
+      <c r="D14" s="5">
         <v>197</v>
       </c>
-      <c r="E14" s="57">
-        <f>D14/$B$4</f>
-        <v/>
-      </c>
-      <c r="F14" s="16" t="n">
+      <c r="E14" s="46">
+        <f t="shared" si="0"/>
+        <v>3.3907056798623061E-2</v>
+      </c>
+      <c r="F14" s="5">
         <v>394</v>
       </c>
-      <c r="G14" s="57">
-        <f>F14/$B$4</f>
-        <v/>
-      </c>
-      <c r="H14" s="34" t="n"/>
+      <c r="G14" s="46">
+        <f t="shared" ref="G14" si="10">F14/$B$4</f>
+        <v>6.7814113597246123E-2</v>
+      </c>
+      <c r="H14" s="34"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Nota: Personal Municipal a 1 de julio de 2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
-      <c r="D15" s="1" t="n"/>
-      <c r="E15" s="1" t="n"/>
-      <c r="F15" s="26" t="n"/>
-      <c r="G15" s="26" t="n"/>
-      <c r="H15" s="1" t="n"/>
-      <c r="I15" s="1" t="n"/>
+    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Elaboración Oficina de Estadística a partir del fichero de personal municipal. Ayuntamiento de València.</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="n"/>
-      <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="n"/>
-      <c r="G16" s="1" t="n"/>
-      <c r="H16" s="1" t="n"/>
-      <c r="I16" s="1" t="n"/>
+    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1"/>
+    <row r="17" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja13">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="9.140625" customWidth="1" min="1" max="1"/>
-    <col width="10.7109375" customWidth="1" style="1" min="2" max="2"/>
-    <col width="11.42578125" customWidth="1" style="1" min="3" max="3"/>
-    <col width="10.7109375" customWidth="1" style="1" min="4" max="7"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>1. Personal Municipal según estructura de edad y sexo. 2024</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="n"/>
-      <c r="C1" s="10" t="n"/>
-      <c r="D1" s="10" t="n"/>
-      <c r="E1" s="10" t="n"/>
-      <c r="F1" s="10" t="n"/>
-      <c r="G1" s="10" t="n"/>
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="10" t="n"/>
-      <c r="C2" s="10" t="n"/>
-      <c r="D2" s="10" t="n"/>
-      <c r="E2" s="10" t="n"/>
-      <c r="F2" s="10" t="n"/>
-      <c r="G2" s="10" t="n"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="47" t="n"/>
-      <c r="B3" s="20" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="20" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D3" s="20" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="E3" s="14" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="F3" s="20" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="G3" s="20" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
+    <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="42" t="n">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="42">
         <v>5810</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="40">
         <f>B4/$B$4</f>
-        <v/>
-      </c>
-      <c r="D4" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="42">
         <v>2962</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="40">
         <f>D4/$B$4</f>
-        <v/>
-      </c>
-      <c r="F4" s="42" t="n">
+        <v>0.50981067125645441</v>
+      </c>
+      <c r="F4" s="42">
         <v>2848</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="40">
         <f>F4/$B$4</f>
-        <v/>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Recuento</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>% del N de columna</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Recuento</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>% del N de columna</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Recuento</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>% del N de columna</t>
-        </is>
+        <v>0.49018932874354559</v>
+      </c>
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt; 25</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="n">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15">
         <v>32</v>
       </c>
-      <c r="C5" s="50">
-        <f>B5/$B$4</f>
-        <v/>
-      </c>
-      <c r="D5" s="15" t="n">
+      <c r="C5" s="23">
+        <f t="shared" ref="C5:C14" si="0">B5/$B$4</f>
+        <v>5.5077452667814117E-3</v>
+      </c>
+      <c r="D5" s="15">
         <v>14</v>
       </c>
-      <c r="E5" s="50">
-        <f>D5/$B$4</f>
-        <v/>
-      </c>
-      <c r="F5" s="15" t="n">
+      <c r="E5" s="23">
+        <f t="shared" ref="E5" si="1">D5/$B$4</f>
+        <v>2.4096385542168677E-3</v>
+      </c>
+      <c r="F5" s="15">
         <v>18</v>
       </c>
-      <c r="G5" s="50">
-        <f>F5/$B$4</f>
-        <v/>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>EDAD_REC</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+      <c r="G5" s="23">
+        <f t="shared" ref="G5" si="2">F5/$B$4</f>
+        <v>3.098106712564544E-3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>5810</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>100</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>2962</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>100</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>2848</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>25-29</t>
-        </is>
-      </c>
-      <c r="B6" s="16" t="n">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
         <v>180</v>
       </c>
-      <c r="C6" s="51">
-        <f>B6/$B$4</f>
-        <v/>
-      </c>
-      <c r="D6" s="16" t="n">
+      <c r="C6" s="24">
+        <f t="shared" si="0"/>
+        <v>3.098106712564544E-2</v>
+      </c>
+      <c r="D6" s="5">
         <v>95</v>
       </c>
-      <c r="E6" s="51">
-        <f>D6/$B$4</f>
-        <v/>
-      </c>
-      <c r="F6" s="16" t="n">
+      <c r="E6" s="24">
+        <f t="shared" ref="E6" si="3">D6/$B$4</f>
+        <v>1.6351118760757316E-2</v>
+      </c>
+      <c r="F6" s="5">
         <v>85</v>
       </c>
-      <c r="G6" s="51">
-        <f>F6/$B$4</f>
-        <v/>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>1. Menor 25</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+      <c r="G6" s="24">
+        <f t="shared" ref="G6" si="4">F6/$B$4</f>
+        <v>1.4629948364888123E-2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6">
         <v>32</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>0.6</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>14</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>0.5</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>18</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>30-34</t>
-        </is>
-      </c>
-      <c r="B7" s="15" t="n">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15">
         <v>275</v>
       </c>
-      <c r="C7" s="50">
-        <f>B7/$B$4</f>
-        <v/>
-      </c>
-      <c r="D7" s="15" t="n">
+      <c r="C7" s="23">
+        <f t="shared" si="0"/>
+        <v>4.7332185886402756E-2</v>
+      </c>
+      <c r="D7" s="15">
         <v>141</v>
       </c>
-      <c r="E7" s="50">
-        <f>D7/$B$4</f>
-        <v/>
-      </c>
-      <c r="F7" s="15" t="n">
+      <c r="E7" s="23">
+        <f t="shared" ref="E7" si="5">D7/$B$4</f>
+        <v>2.4268502581755592E-2</v>
+      </c>
+      <c r="F7" s="15">
         <v>134</v>
       </c>
-      <c r="G7" s="50">
-        <f>F7/$B$4</f>
-        <v/>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2. 25-29</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+      <c r="G7" s="23">
+        <f t="shared" ref="G7" si="6">F7/$B$4</f>
+        <v>2.306368330464716E-2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7">
         <v>180</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>3.1</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>95</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>3.2</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>85</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>35-39</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="n">
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
         <v>326</v>
       </c>
-      <c r="C8" s="51">
-        <f>B8/$B$4</f>
-        <v/>
-      </c>
-      <c r="D8" s="16" t="n">
+      <c r="C8" s="24">
+        <f t="shared" si="0"/>
+        <v>5.6110154905335628E-2</v>
+      </c>
+      <c r="D8" s="5">
         <v>155</v>
       </c>
-      <c r="E8" s="51">
-        <f>D8/$B$4</f>
-        <v/>
-      </c>
-      <c r="F8" s="16" t="n">
+      <c r="E8" s="24">
+        <f t="shared" ref="E8" si="7">D8/$B$4</f>
+        <v>2.6678141135972461E-2</v>
+      </c>
+      <c r="F8" s="5">
         <v>171</v>
       </c>
-      <c r="G8" s="51">
-        <f>F8/$B$4</f>
-        <v/>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>3. 30-34</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+      <c r="G8" s="24">
+        <f t="shared" ref="G8" si="8">F8/$B$4</f>
+        <v>2.9432013769363167E-2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8">
         <v>275</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>4.7</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>141</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>4.8</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>134</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="12" t="inlineStr">
-        <is>
-          <t>40-44</t>
-        </is>
-      </c>
-      <c r="B9" s="15" t="n">
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15">
         <v>556</v>
       </c>
-      <c r="C9" s="50">
-        <f>B9/$B$4</f>
-        <v/>
-      </c>
-      <c r="D9" s="15" t="n">
+      <c r="C9" s="23">
+        <f t="shared" si="0"/>
+        <v>9.5697074010327024E-2</v>
+      </c>
+      <c r="D9" s="15">
         <v>294</v>
       </c>
-      <c r="E9" s="50">
-        <f>D9/$B$4</f>
-        <v/>
-      </c>
-      <c r="F9" s="15" t="n">
+      <c r="E9" s="23">
+        <f t="shared" ref="E9" si="9">D9/$B$4</f>
+        <v>5.0602409638554217E-2</v>
+      </c>
+      <c r="F9" s="15">
         <v>262</v>
       </c>
-      <c r="G9" s="50">
-        <f>F9/$B$4</f>
-        <v/>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>4. 35-39</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+      <c r="G9" s="23">
+        <f t="shared" ref="G9" si="10">F9/$B$4</f>
+        <v>4.5094664371772807E-2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9">
         <v>326</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>5.6</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>155</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>5.2</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>171</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="9" t="inlineStr">
-        <is>
-          <t>45-49</t>
-        </is>
-      </c>
-      <c r="B10" s="16" t="n">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
         <v>1099</v>
       </c>
-      <c r="C10" s="51">
-        <f>B10/$B$4</f>
-        <v/>
-      </c>
-      <c r="D10" s="16" t="n">
+      <c r="C10" s="24">
+        <f t="shared" si="0"/>
+        <v>0.18915662650602411</v>
+      </c>
+      <c r="D10" s="5">
         <v>584</v>
       </c>
-      <c r="E10" s="51">
-        <f>D10/$B$4</f>
-        <v/>
-      </c>
-      <c r="F10" s="16" t="n">
+      <c r="E10" s="24">
+        <f t="shared" ref="E10" si="11">D10/$B$4</f>
+        <v>0.10051635111876076</v>
+      </c>
+      <c r="F10" s="5">
         <v>515</v>
       </c>
-      <c r="G10" s="51">
-        <f>F10/$B$4</f>
-        <v/>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>5. 40-44</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+      <c r="G10" s="24">
+        <f t="shared" ref="G10" si="12">F10/$B$4</f>
+        <v>8.8640275387263337E-2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10">
         <v>556</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>9.6</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>294</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>9.9</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>262</v>
       </c>
-      <c r="R10" t="n">
-        <v>9.199999999999999</v>
+      <c r="R10">
+        <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="12" t="inlineStr">
-        <is>
-          <t>50-54</t>
-        </is>
-      </c>
-      <c r="B11" s="15" t="n">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15">
         <v>1196</v>
       </c>
-      <c r="C11" s="50">
-        <f>B11/$B$4</f>
-        <v/>
-      </c>
-      <c r="D11" s="15" t="n">
+      <c r="C11" s="23">
+        <f t="shared" si="0"/>
+        <v>0.20585197934595525</v>
+      </c>
+      <c r="D11" s="15">
         <v>614</v>
       </c>
-      <c r="E11" s="50">
-        <f>D11/$B$4</f>
-        <v/>
-      </c>
-      <c r="F11" s="15" t="n">
+      <c r="E11" s="23">
+        <f t="shared" ref="E11" si="13">D11/$B$4</f>
+        <v>0.10567986230636833</v>
+      </c>
+      <c r="F11" s="15">
         <v>582</v>
       </c>
-      <c r="G11" s="50">
-        <f>F11/$B$4</f>
-        <v/>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>6. 45-49</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="G11" s="23">
+        <f t="shared" ref="G11" si="14">F11/$B$4</f>
+        <v>0.10017211703958692</v>
+      </c>
+      <c r="L11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11">
         <v>1099</v>
       </c>
-      <c r="N11" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="N11">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="O11">
         <v>584</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>19.7</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>515</v>
       </c>
-      <c r="R11" t="n">
-        <v>18.1</v>
+      <c r="R11">
+        <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>55-59</t>
-        </is>
-      </c>
-      <c r="B12" s="16" t="n">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="16">
         <v>1187</v>
       </c>
-      <c r="C12" s="51">
-        <f>B12/$B$4</f>
-        <v/>
-      </c>
-      <c r="D12" s="16" t="n">
+      <c r="C12" s="24">
+        <f t="shared" si="0"/>
+        <v>0.20430292598967298</v>
+      </c>
+      <c r="D12" s="16">
         <v>624</v>
       </c>
-      <c r="E12" s="51">
-        <f>D12/$B$4</f>
-        <v/>
-      </c>
-      <c r="F12" s="16" t="n">
+      <c r="E12" s="24">
+        <f t="shared" ref="E12" si="15">D12/$B$4</f>
+        <v>0.10740103270223753</v>
+      </c>
+      <c r="F12" s="16">
         <v>563</v>
       </c>
-      <c r="G12" s="51">
-        <f>F12/$B$4</f>
-        <v/>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>7. 50-54</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="G12" s="24">
+        <f t="shared" ref="G12" si="16">F12/$B$4</f>
+        <v>9.6901893287435453E-2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12">
         <v>1196</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>20.6</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>614</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>20.7</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>582</v>
       </c>
-      <c r="R12" t="n">
-        <v>20.4</v>
+      <c r="R12">
+        <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="12" t="inlineStr">
-        <is>
-          <t>60-64</t>
-        </is>
-      </c>
-      <c r="B13" s="15" t="n">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15">
         <v>821</v>
       </c>
-      <c r="C13" s="50">
-        <f>B13/$B$4</f>
-        <v/>
-      </c>
-      <c r="D13" s="15" t="n">
+      <c r="C13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.14130808950086057</v>
+      </c>
+      <c r="D13" s="15">
         <v>375</v>
       </c>
-      <c r="E13" s="50">
-        <f>D13/$B$4</f>
-        <v/>
-      </c>
-      <c r="F13" s="15" t="n">
+      <c r="E13" s="23">
+        <f t="shared" ref="E13" si="17">D13/$B$4</f>
+        <v>6.4543889845094668E-2</v>
+      </c>
+      <c r="F13" s="15">
         <v>446</v>
       </c>
-      <c r="G13" s="50">
-        <f>F13/$B$4</f>
-        <v/>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>8. 55-59</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+      <c r="G13" s="23">
+        <f t="shared" ref="G13" si="18">F13/$B$4</f>
+        <v>7.6764199655765919E-2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13">
         <v>1187</v>
       </c>
-      <c r="N13" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="N13">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="O13">
         <v>624</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>21.1</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>563</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>19.8</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &gt;= 65</t>
-        </is>
-      </c>
-      <c r="B14" s="16" t="n">
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="16">
         <v>138</v>
       </c>
-      <c r="C14" s="51">
-        <f>B14/$B$4</f>
-        <v/>
-      </c>
-      <c r="D14" s="16" t="n">
+      <c r="C14" s="24">
+        <f t="shared" si="0"/>
+        <v>2.3752151462994836E-2</v>
+      </c>
+      <c r="D14" s="16">
         <v>66</v>
       </c>
-      <c r="E14" s="51">
-        <f>D14/$B$4</f>
-        <v/>
-      </c>
-      <c r="F14" s="7" t="n">
+      <c r="E14" s="24">
+        <f t="shared" ref="E14" si="19">D14/$B$4</f>
+        <v>1.1359724612736662E-2</v>
+      </c>
+      <c r="F14" s="7">
         <v>72</v>
       </c>
-      <c r="G14" s="51">
-        <f>F14/$B$4</f>
-        <v/>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>9. 60-64</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+      <c r="G14" s="24">
+        <f t="shared" ref="G14" si="20">F14/$B$4</f>
+        <v>1.2392426850258176E-2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14">
         <v>821</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>14.1</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>375</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>12.7</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>446</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>15.7</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Nota: Personal Municipal a 1 de julio de 2024</t>
-        </is>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Elaboración Oficina de Estadística a partir del fichero de personal municipal. Ayuntamiento de València.</t>
-        </is>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="35" t="n"/>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="35"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="46" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja14">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D5:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="31" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="31" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="31" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="31" min="4" max="16384"/>
+    <col min="1" max="1" width="5.5703125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
-    <row r="5">
-      <c r="D5" s="33" t="n"/>
-      <c r="E5" s="32" t="n"/>
-      <c r="F5" s="32" t="n"/>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="33"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
-    <row r="6">
-      <c r="D6" s="33" t="n"/>
-      <c r="E6" s="32" t="n"/>
-      <c r="F6" s="32" t="n"/>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="33"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
-    <row r="7">
-      <c r="D7" s="33" t="n"/>
-      <c r="E7" s="32" t="n"/>
-      <c r="F7" s="32" t="n"/>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="33"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
     </row>
-    <row r="8">
-      <c r="D8" s="33" t="n"/>
-      <c r="E8" s="32" t="n"/>
-      <c r="F8" s="32" t="n"/>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="33"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
-    <row r="9">
-      <c r="D9" s="33" t="n"/>
-      <c r="E9" s="32" t="n"/>
-      <c r="F9" s="32" t="n"/>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="33"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
-    <row r="10">
-      <c r="D10" s="33" t="n"/>
-      <c r="E10" s="32" t="n"/>
-      <c r="F10" s="32" t="n"/>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="33"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
-    <row r="11">
-      <c r="D11" s="33" t="n"/>
-      <c r="E11" s="32" t="n"/>
-      <c r="F11" s="32" t="n"/>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="33"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
-    <row r="12">
-      <c r="D12" s="33" t="n"/>
-      <c r="E12" s="32" t="n"/>
-      <c r="F12" s="32" t="n"/>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D12" s="33"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
     </row>
-    <row r="13">
-      <c r="D13" s="33" t="n"/>
-      <c r="E13" s="32" t="n"/>
-      <c r="F13" s="32" t="n"/>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="33"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
     </row>
-    <row r="14">
-      <c r="D14" s="33" t="n"/>
-      <c r="E14" s="32" t="n"/>
-      <c r="F14" s="32" t="n"/>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="33"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja15">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="43" customWidth="1" min="1" max="1"/>
-    <col width="9.5703125" customWidth="1" style="1" min="2" max="2"/>
-    <col width="8.5703125" customWidth="1" style="1" min="3" max="3"/>
-    <col width="9.42578125" customWidth="1" style="1" min="4" max="8"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
+    <col min="4" max="8" width="9.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>2. Personal municipal según área. 2024</t>
-        </is>
-      </c>
-      <c r="B1" s="27" t="n"/>
-      <c r="C1" s="10" t="n"/>
-      <c r="D1" s="10" t="n"/>
-      <c r="E1" s="10" t="n"/>
-      <c r="F1" s="10" t="n"/>
-      <c r="G1" s="10" t="n"/>
-      <c r="H1" s="10" t="n"/>
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="10" t="n"/>
-      <c r="C2" s="10" t="n"/>
-      <c r="D2" s="10" t="n"/>
-      <c r="E2" s="10" t="n"/>
-      <c r="F2" s="10" t="n"/>
-      <c r="G2" s="52" t="n"/>
-      <c r="H2" s="10" t="n"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="10"/>
     </row>
-    <row r="3" ht="15.4" customHeight="1">
-      <c r="A3" s="47" t="n"/>
-      <c r="B3" s="20" t="n"/>
-      <c r="C3" s="20" t="n"/>
-      <c r="D3" s="20" t="n"/>
-      <c r="E3" s="41" t="n"/>
-      <c r="F3" s="20" t="n"/>
-      <c r="G3" s="47" t="inlineStr">
-        <is>
-          <t>Edad media</t>
-        </is>
-      </c>
-      <c r="H3" s="47" t="n"/>
+    <row r="3" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="47"/>
     </row>
-    <row r="4" ht="15.4" customHeight="1">
-      <c r="A4" s="47" t="n"/>
-      <c r="B4" s="20" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C4" s="20" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D4" s="20" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="E4" s="41" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="F4" s="20" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="G4" s="20" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="H4" s="20" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
+    <row r="4" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="44" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B5" s="42" t="n">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="42">
         <v>5810</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="39">
         <f>B5/B$5</f>
-        <v/>
-      </c>
-      <c r="D5" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="42">
         <v>2962</v>
       </c>
-      <c r="E5" s="42" t="n">
+      <c r="E5" s="42">
         <v>2848</v>
       </c>
-      <c r="F5" s="54" t="n">
+      <c r="F5" s="43">
         <v>50.2</v>
       </c>
-      <c r="G5" s="54" t="n">
+      <c r="G5" s="43">
         <v>50.04</v>
       </c>
-      <c r="H5" s="54" t="n">
+      <c r="H5" s="43">
         <v>50.36</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="12" t="inlineStr">
-        <is>
-          <t>Alcaldía</t>
-        </is>
-      </c>
-      <c r="B6" s="15" t="n">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="15">
         <v>214</v>
       </c>
-      <c r="C6" s="55">
-        <f>B6/B$5</f>
-        <v/>
-      </c>
-      <c r="D6" s="15" t="n">
+      <c r="C6" s="22">
+        <f t="shared" ref="C6:C19" si="0">B6/B$5</f>
+        <v>3.683304647160069E-2</v>
+      </c>
+      <c r="D6" s="15">
         <v>99</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="E6" s="15">
         <v>115</v>
       </c>
-      <c r="F6" s="56" t="n">
+      <c r="F6" s="38">
         <v>51.36</v>
       </c>
-      <c r="G6" s="56" t="n">
+      <c r="G6" s="38">
         <v>50.91</v>
       </c>
-      <c r="H6" s="56" t="n">
+      <c r="H6" s="38">
         <v>51.75</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="9" t="inlineStr">
-        <is>
-          <t>Cultura, Educación, Deportes y Fallas</t>
-        </is>
-      </c>
-      <c r="B7" s="16" t="n">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="5">
         <v>834</v>
       </c>
-      <c r="C7" s="57">
-        <f>B7/B$5</f>
-        <v/>
-      </c>
-      <c r="D7" s="16" t="n">
+      <c r="C7" s="21">
+        <f t="shared" si="0"/>
+        <v>0.14354561101549054</v>
+      </c>
+      <c r="D7" s="5">
         <v>326</v>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E7" s="5">
         <v>508</v>
       </c>
-      <c r="F7" s="58" t="n">
+      <c r="F7" s="45">
         <v>50.36</v>
       </c>
-      <c r="G7" s="58" t="n">
+      <c r="G7" s="45">
         <v>52.37</v>
       </c>
-      <c r="H7" s="58" t="n">
+      <c r="H7" s="45">
         <v>49.08</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="12" t="inlineStr">
-        <is>
-          <t>Hacienda y Participación</t>
-        </is>
-      </c>
-      <c r="B8" s="15" t="n">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="15">
         <v>597</v>
       </c>
-      <c r="C8" s="55">
-        <f>B8/B$5</f>
-        <v/>
-      </c>
-      <c r="D8" s="15" t="n">
+      <c r="C8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.10275387263339071</v>
+      </c>
+      <c r="D8" s="15">
         <v>164</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E8" s="15">
         <v>433</v>
       </c>
-      <c r="F8" s="56" t="n">
+      <c r="F8" s="38">
         <v>52.14</v>
       </c>
-      <c r="G8" s="56" t="n">
+      <c r="G8" s="38">
         <v>51.76</v>
       </c>
-      <c r="H8" s="56" t="n">
+      <c r="H8" s="38">
         <v>52.29</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="9" t="inlineStr">
-        <is>
-          <t>Ocupación, Formación y Emprendimiento</t>
-        </is>
-      </c>
-      <c r="B9" s="16" t="n">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="5">
         <v>134</v>
       </c>
-      <c r="C9" s="57">
-        <f>B9/B$5</f>
-        <v/>
-      </c>
-      <c r="D9" s="16" t="n">
+      <c r="C9" s="21">
+        <f t="shared" si="0"/>
+        <v>2.306368330464716E-2</v>
+      </c>
+      <c r="D9" s="5">
         <v>31</v>
       </c>
-      <c r="E9" s="16" t="n">
+      <c r="E9" s="5">
         <v>103</v>
       </c>
-      <c r="F9" s="58" t="n">
+      <c r="F9" s="45">
         <v>53.52</v>
       </c>
-      <c r="G9" s="58" t="n">
+      <c r="G9" s="45">
         <v>53.58</v>
       </c>
-      <c r="H9" s="58" t="n">
+      <c r="H9" s="45">
         <v>53.5</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="12" t="inlineStr">
-        <is>
-          <t>Urbanismo, Vivienda y Licencias</t>
-        </is>
-      </c>
-      <c r="B10" s="15" t="n">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="15">
         <v>301</v>
       </c>
-      <c r="C10" s="55">
-        <f>B10/B$5</f>
-        <v/>
-      </c>
-      <c r="D10" s="15" t="n">
+      <c r="C10" s="22">
+        <f t="shared" si="0"/>
+        <v>5.1807228915662654E-2</v>
+      </c>
+      <c r="D10" s="15">
         <v>108</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="15">
         <v>193</v>
       </c>
-      <c r="F10" s="56" t="n">
+      <c r="F10" s="38">
         <v>53.41</v>
       </c>
-      <c r="G10" s="56" t="n">
+      <c r="G10" s="38">
         <v>55.06</v>
       </c>
-      <c r="H10" s="56" t="n">
+      <c r="H10" s="38">
         <v>52.48</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="9" t="inlineStr">
-        <is>
-          <t>Bienestar Social</t>
-        </is>
-      </c>
-      <c r="B11" s="16" t="n">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="16">
         <v>648</v>
       </c>
-      <c r="C11" s="57">
-        <f>B11/B$5</f>
-        <v/>
-      </c>
-      <c r="D11" s="16" t="n">
+      <c r="C11" s="21">
+        <f t="shared" si="0"/>
+        <v>0.11153184165232358</v>
+      </c>
+      <c r="D11" s="16">
         <v>105</v>
       </c>
-      <c r="E11" s="16" t="n">
+      <c r="E11" s="16">
         <v>543</v>
       </c>
-      <c r="F11" s="58" t="n">
+      <c r="F11" s="37">
         <v>48.52</v>
       </c>
-      <c r="G11" s="58" t="n">
+      <c r="G11" s="37">
         <v>50.1</v>
       </c>
-      <c r="H11" s="58" t="n">
+      <c r="H11" s="37">
         <v>48.21</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="12" t="inlineStr">
-        <is>
-          <t>Familia, Mayores y Tradiciones</t>
-        </is>
-      </c>
-      <c r="B12" s="15" t="n">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="15">
         <v>224</v>
       </c>
-      <c r="C12" s="55">
-        <f>B12/B$5</f>
-        <v/>
-      </c>
-      <c r="D12" s="15" t="n">
+      <c r="C12" s="22">
+        <f t="shared" si="0"/>
+        <v>3.8554216867469883E-2</v>
+      </c>
+      <c r="D12" s="15">
         <v>76</v>
       </c>
-      <c r="E12" s="15" t="n">
+      <c r="E12" s="15">
         <v>148</v>
       </c>
-      <c r="F12" s="56" t="n">
+      <c r="F12" s="38">
         <v>54.03</v>
       </c>
-      <c r="G12" s="56" t="n">
+      <c r="G12" s="38">
         <v>54.36</v>
       </c>
-      <c r="H12" s="56" t="n">
+      <c r="H12" s="38">
         <v>53.86</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="9" t="inlineStr">
-        <is>
-          <t>Parques, Jardines y Espacios Naturales</t>
-        </is>
-      </c>
-      <c r="B13" s="16" t="n">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="16">
         <v>99</v>
       </c>
-      <c r="C13" s="57">
-        <f>B13/B$5</f>
-        <v/>
-      </c>
-      <c r="D13" s="16" t="n">
+      <c r="C13" s="21">
+        <f t="shared" si="0"/>
+        <v>1.7039586919104992E-2</v>
+      </c>
+      <c r="D13" s="16">
         <v>54</v>
       </c>
-      <c r="E13" s="16" t="n">
+      <c r="E13" s="16">
         <v>45</v>
       </c>
-      <c r="F13" s="58" t="n">
+      <c r="F13" s="37">
         <v>54.85</v>
       </c>
-      <c r="G13" s="58" t="n">
+      <c r="G13" s="37">
         <v>54.46</v>
       </c>
-      <c r="H13" s="58" t="n">
+      <c r="H13" s="37">
         <v>55.31</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="12" t="inlineStr">
-        <is>
-          <t>Seguridad y Movilidad</t>
-        </is>
-      </c>
-      <c r="B14" s="15" t="n">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="15">
         <v>2161</v>
       </c>
-      <c r="C14" s="55">
-        <f>B14/B$5</f>
-        <v/>
-      </c>
-      <c r="D14" s="15" t="n">
+      <c r="C14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.37194492254733219</v>
+      </c>
+      <c r="D14" s="15">
         <v>1761</v>
       </c>
-      <c r="E14" s="15" t="n">
+      <c r="E14" s="15">
         <v>400</v>
       </c>
-      <c r="F14" s="56" t="n">
+      <c r="F14" s="38">
         <v>47.96</v>
       </c>
-      <c r="G14" s="56" t="n">
+      <c r="G14" s="38">
         <v>48.09</v>
       </c>
-      <c r="H14" s="56" t="n">
+      <c r="H14" s="38">
         <v>47.41</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="17" t="inlineStr">
-        <is>
-          <t>Prevención y extinción de incendios</t>
-        </is>
-      </c>
-      <c r="B15" s="16" t="n">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="16">
         <v>466</v>
       </c>
-      <c r="C15" s="57">
-        <f>B15/B$5</f>
-        <v/>
-      </c>
-      <c r="D15" s="16" t="n">
+      <c r="C15" s="21">
+        <f t="shared" si="0"/>
+        <v>8.0206540447504304E-2</v>
+      </c>
+      <c r="D15" s="16">
         <v>435</v>
       </c>
-      <c r="E15" s="16" t="n">
+      <c r="E15" s="16">
         <v>31</v>
       </c>
-      <c r="F15" s="58" t="n">
+      <c r="F15" s="37">
         <v>45.58</v>
       </c>
-      <c r="G15" s="58" t="n">
+      <c r="G15" s="37">
         <v>45.56</v>
       </c>
-      <c r="H15" s="58" t="n">
+      <c r="H15" s="37">
         <v>45.9</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="18" t="inlineStr">
-        <is>
-          <t>Policía local</t>
-        </is>
-      </c>
-      <c r="B16" s="15" t="n">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="15">
         <v>1556</v>
       </c>
-      <c r="C16" s="55">
-        <f>B16/B$5</f>
-        <v/>
-      </c>
-      <c r="D16" s="15" t="n">
+      <c r="C16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.26781411359724611</v>
+      </c>
+      <c r="D16" s="15">
         <v>1267</v>
       </c>
-      <c r="E16" s="15" t="n">
+      <c r="E16" s="15">
         <v>289</v>
       </c>
-      <c r="F16" s="56" t="n">
+      <c r="F16" s="38">
         <v>48.29</v>
       </c>
-      <c r="G16" s="56" t="n">
+      <c r="G16" s="38">
         <v>48.72</v>
       </c>
-      <c r="H16" s="56" t="n">
+      <c r="H16" s="38">
         <v>46.37</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="9" t="inlineStr">
-        <is>
-          <t>Patrimonio, Recursos Humanos y Técnicos</t>
-        </is>
-      </c>
-      <c r="B17" s="16" t="n">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="16">
         <v>393</v>
       </c>
-      <c r="C17" s="57">
-        <f>B17/B$5</f>
-        <v/>
-      </c>
-      <c r="D17" s="16" t="n">
+      <c r="C17" s="21">
+        <f t="shared" si="0"/>
+        <v>6.7641996557659206E-2</v>
+      </c>
+      <c r="D17" s="16">
         <v>155</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="16">
         <v>238</v>
       </c>
-      <c r="F17" s="58" t="n">
+      <c r="F17" s="37">
         <v>53.4</v>
       </c>
-      <c r="G17" s="58" t="n">
+      <c r="G17" s="37">
         <v>55.99</v>
       </c>
-      <c r="H17" s="58" t="n">
+      <c r="H17" s="37">
         <v>51.72</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="12" t="inlineStr">
-        <is>
-          <t>Residuos, Mejora Climática y Gestión del Agua</t>
-        </is>
-      </c>
-      <c r="B18" s="15" t="n">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="15">
         <v>95</v>
       </c>
-      <c r="C18" s="55">
-        <f>B18/B$5</f>
-        <v/>
-      </c>
-      <c r="D18" s="15" t="n">
+      <c r="C18" s="22">
+        <f t="shared" si="0"/>
+        <v>1.6351118760757316E-2</v>
+      </c>
+      <c r="D18" s="15">
         <v>41</v>
       </c>
-      <c r="E18" s="15" t="n">
+      <c r="E18" s="15">
         <v>54</v>
       </c>
-      <c r="F18" s="56" t="n">
+      <c r="F18" s="38">
         <v>54.43</v>
       </c>
-      <c r="G18" s="56" t="n">
+      <c r="G18" s="38">
         <v>56.29</v>
       </c>
-      <c r="H18" s="56" t="n">
+      <c r="H18" s="38">
         <v>53.02</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="9" t="inlineStr">
-        <is>
-          <t>Pleno</t>
-        </is>
-      </c>
-      <c r="B19" s="16" t="n">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="16">
         <v>110</v>
       </c>
-      <c r="C19" s="57">
-        <f>B19/B$5</f>
-        <v/>
-      </c>
-      <c r="D19" s="16" t="n">
+      <c r="C19" s="21">
+        <f t="shared" si="0"/>
+        <v>1.8932874354561102E-2</v>
+      </c>
+      <c r="D19" s="16">
         <v>42</v>
       </c>
-      <c r="E19" s="16" t="n">
+      <c r="E19" s="16">
         <v>68</v>
       </c>
-      <c r="F19" s="58" t="n">
+      <c r="F19" s="37">
         <v>49.86</v>
       </c>
-      <c r="G19" s="58" t="n">
+      <c r="G19" s="37">
         <v>47.93</v>
       </c>
-      <c r="H19" s="59" t="n">
+      <c r="H19" s="48">
         <v>51.06</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="8" t="inlineStr">
-        <is>
-          <t>Nota: Personal Municipal a 1 de juliol de 2024</t>
-        </is>
-      </c>
-      <c r="E20" s="26" t="n"/>
-      <c r="F20" s="26" t="n"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
     </row>
-    <row r="21">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>Fuente:Elaboración Oficina de Estadística a partir del fichero de personal municipal. Ayuntamiento de València.</t>
-        </is>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="7" t="n"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
     </row>
-    <row r="23">
-      <c r="H23" s="53" t="n"/>
-      <c r="I23" s="53" t="n"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
     </row>
-    <row r="24">
-      <c r="H24" s="53" t="n"/>
-      <c r="I24" s="53" t="n"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
     </row>
-    <row r="25">
-      <c r="A25" s="9" t="n"/>
-      <c r="H25" s="53" t="n"/>
-      <c r="I25" s="53" t="n"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
     </row>
-    <row r="26">
-      <c r="H26" s="53" t="n"/>
-      <c r="I26" s="53" t="n"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
     </row>
-    <row r="27">
-      <c r="H27" s="53" t="n"/>
-      <c r="I27" s="53" t="n"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
     </row>
-    <row r="28">
-      <c r="H28" s="53" t="n"/>
-      <c r="I28" s="53" t="n"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
     </row>
-    <row r="29">
-      <c r="H29" s="53" t="n"/>
-      <c r="I29" s="53" t="n"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
     </row>
-    <row r="30">
-      <c r="H30" s="53" t="n"/>
-      <c r="I30" s="53" t="n"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
     </row>
-    <row r="31">
-      <c r="H31" s="53" t="n"/>
-      <c r="I31" s="53" t="n"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
     </row>
-    <row r="32">
-      <c r="H32" s="53" t="n"/>
-      <c r="I32" s="53" t="n"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
     </row>
-    <row r="33">
-      <c r="H33" s="53" t="n"/>
-      <c r="I33" s="53" t="n"/>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
     </row>
-    <row r="34">
-      <c r="H34" s="53" t="n"/>
-      <c r="I34" s="53" t="n"/>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
     </row>
-    <row r="35">
-      <c r="H35" s="53" t="n"/>
-      <c r="I35" s="53" t="n"/>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
     </row>
-    <row r="36">
-      <c r="H36" s="53" t="n"/>
-      <c r="I36" s="53" t="n"/>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
     </row>
-    <row r="37">
-      <c r="H37" s="53" t="n"/>
-      <c r="I37" s="53" t="n"/>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
     </row>
-    <row r="38">
-      <c r="H38" s="53" t="n"/>
-      <c r="I38" s="53" t="n"/>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="89" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja16">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="22.42578125" customWidth="1" min="1" max="1"/>
-    <col width="10.7109375" customWidth="1" style="1" min="2" max="5"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="5" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>3. Personal municipal según grupo de titulación del puesto de trabajo. 2024</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="n"/>
-      <c r="C1" s="10" t="n"/>
-      <c r="D1" s="10" t="n"/>
-      <c r="E1" s="10" t="n"/>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="10" t="n"/>
-      <c r="C2" s="10" t="n"/>
-      <c r="D2" s="10" t="n"/>
-      <c r="E2" s="10" t="n"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="47" t="n"/>
-      <c r="B3" s="20" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="20" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D3" s="20" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="E3" s="20" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="42" t="n">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="42">
         <v>5810</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="39">
         <f>B4/B$4</f>
-        <v/>
-      </c>
-      <c r="D4" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="42">
         <v>2962</v>
       </c>
-      <c r="E4" s="42" t="n">
+      <c r="E4" s="42">
         <v>2848</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="n">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="15">
         <v>771</v>
       </c>
-      <c r="C5" s="55">
-        <f>B5/B$4</f>
-        <v/>
-      </c>
-      <c r="D5" s="15" t="n">
+      <c r="C5" s="22">
+        <f t="shared" ref="C5:C12" si="0">B5/B$4</f>
+        <v>0.13270223752151464</v>
+      </c>
+      <c r="D5" s="15">
         <v>369</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" s="15">
         <v>402</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="B6" s="16" t="n">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5">
         <v>706</v>
       </c>
-      <c r="C6" s="57">
-        <f>B6/B$4</f>
-        <v/>
-      </c>
-      <c r="D6" s="16" t="n">
+      <c r="C6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.12151462994836489</v>
+      </c>
+      <c r="D6" s="5">
         <v>235</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="5">
         <v>471</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="B7" s="15" t="n">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="15">
         <v>339</v>
       </c>
-      <c r="C7" s="55">
-        <f>B7/B$4</f>
-        <v/>
-      </c>
-      <c r="D7" s="15" t="n">
+      <c r="C7" s="22">
+        <f t="shared" si="0"/>
+        <v>5.8347676419965577E-2</v>
+      </c>
+      <c r="D7" s="15">
         <v>277</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="15">
         <v>62</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="n">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5">
         <v>1910</v>
       </c>
-      <c r="C8" s="57">
-        <f>B8/B$4</f>
-        <v/>
-      </c>
-      <c r="D8" s="16" t="n">
+      <c r="C8" s="21">
+        <f t="shared" si="0"/>
+        <v>0.32874354561101549</v>
+      </c>
+      <c r="D8" s="5">
         <v>1423</v>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="5">
         <v>487</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="12" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B9" s="15" t="n">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="15">
         <v>945</v>
       </c>
-      <c r="C9" s="55">
-        <f>B9/B$4</f>
-        <v/>
-      </c>
-      <c r="D9" s="15" t="n">
+      <c r="C9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.16265060240963855</v>
+      </c>
+      <c r="D9" s="15">
         <v>211</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="15">
         <v>734</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="9" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B10" s="16" t="n">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5">
         <v>491</v>
       </c>
-      <c r="C10" s="57">
-        <f>B10/B$4</f>
-        <v/>
-      </c>
-      <c r="D10" s="16" t="n">
+      <c r="C10" s="21">
+        <f t="shared" si="0"/>
+        <v>8.4509466437177286E-2</v>
+      </c>
+      <c r="D10" s="5">
         <v>218</v>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="5">
         <v>273</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="12" t="inlineStr">
-        <is>
-          <t>Funcionario de empleo</t>
-        </is>
-      </c>
-      <c r="B11" s="15" t="n">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="15">
         <v>57</v>
       </c>
-      <c r="C11" s="55">
-        <f>B11/B$4</f>
-        <v/>
-      </c>
-      <c r="D11" s="15" t="n">
+      <c r="C11" s="22">
+        <f t="shared" si="0"/>
+        <v>9.8106712564543889E-3</v>
+      </c>
+      <c r="D11" s="15">
         <v>32</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E11" s="15">
         <v>25</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>Personal laboral</t>
-        </is>
-      </c>
-      <c r="B12" s="16" t="n">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
         <v>591</v>
       </c>
-      <c r="C12" s="57">
-        <f>B12/B$4</f>
-        <v/>
-      </c>
-      <c r="D12" s="16" t="n">
+      <c r="C12" s="21">
+        <f t="shared" si="0"/>
+        <v>0.10172117039586918</v>
+      </c>
+      <c r="D12" s="5">
         <v>197</v>
       </c>
-      <c r="E12" s="16" t="n">
+      <c r="E12" s="5">
         <v>394</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>Nota: Personal Municipal a 1 de julio de 2024</t>
-        </is>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Elaboración Oficina de Estadística a partir del fichero de personal municipal. Ayuntamiento de València.</t>
-        </is>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja17">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D5:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="30" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="30" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="30" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="30" min="4" max="16384"/>
+    <col min="1" max="1" width="5.5703125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="29"/>
   </cols>
   <sheetData>
-    <row r="5">
-      <c r="D5" s="31" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="7" t="n"/>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="31"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
-    <row r="6">
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="16" t="n"/>
-      <c r="F6" s="16" t="n"/>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="7"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
-    <row r="7">
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="16" t="n"/>
-      <c r="F7" s="16" t="n"/>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="7"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
-    <row r="8">
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="16" t="n"/>
-      <c r="F8" s="16" t="n"/>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="7"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
-    <row r="9">
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="16" t="n"/>
-      <c r="F9" s="16" t="n"/>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="7"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
-    <row r="10">
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="16" t="n"/>
-      <c r="F10" s="16" t="n"/>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="7"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
-    <row r="11">
-      <c r="D11" s="30" t="n"/>
-      <c r="E11" s="30" t="n"/>
-      <c r="F11" s="30" t="n"/>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja18">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="23.7109375" customWidth="1" min="1" max="1"/>
-    <col width="10.7109375" customWidth="1" style="1" min="2" max="7"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="7" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>4. Personal municipal según vinculación laboral. 2024</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="n"/>
-      <c r="C1" s="10" t="n"/>
-      <c r="D1" s="10" t="n"/>
-      <c r="E1" s="10" t="n"/>
-      <c r="F1" s="10" t="n"/>
-      <c r="G1" s="10" t="n"/>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="10" t="n"/>
-      <c r="C2" s="10" t="n"/>
-      <c r="D2" s="10" t="n"/>
-      <c r="E2" s="10" t="n"/>
-      <c r="F2" s="10" t="n"/>
-      <c r="G2" s="10" t="n"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="47" t="n"/>
-      <c r="B3" s="20" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="20" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D3" s="20" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="E3" s="20" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="F3" s="20" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="G3" s="20" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="42" t="n">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="42">
         <v>5810</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="39">
         <f>B4/$B$4</f>
-        <v/>
-      </c>
-      <c r="D4" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="42">
         <v>2962</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="39">
         <f>D4/$B$4</f>
-        <v/>
-      </c>
-      <c r="F4" s="42" t="n">
+        <v>0.50981067125645441</v>
+      </c>
+      <c r="F4" s="42">
         <v>2848</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="39">
         <f>F4/$B$4</f>
-        <v/>
+        <v>0.49018932874354559</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>Funcionariado de carrera</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="n">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="15">
         <v>3366</v>
       </c>
-      <c r="C5" s="55">
-        <f>B5/$B$4</f>
-        <v/>
-      </c>
-      <c r="D5" s="15" t="n">
+      <c r="C5" s="22">
+        <f t="shared" ref="C5:E8" si="0">B5/$B$4</f>
+        <v>0.57934595524956967</v>
+      </c>
+      <c r="D5" s="15">
         <v>2220</v>
       </c>
-      <c r="E5" s="55">
-        <f>D5/$B$4</f>
-        <v/>
-      </c>
-      <c r="F5" s="15" t="n">
+      <c r="E5" s="22">
+        <f t="shared" si="0"/>
+        <v>0.38209982788296043</v>
+      </c>
+      <c r="F5" s="15">
         <v>1146</v>
       </c>
-      <c r="G5" s="55">
-        <f>F5/$B$4</f>
-        <v/>
+      <c r="G5" s="22">
+        <f t="shared" ref="G5" si="1">F5/$B$4</f>
+        <v>0.19724612736660929</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>Funcionario de empleo</t>
-        </is>
-      </c>
-      <c r="B6" s="16" t="n">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5">
         <v>57</v>
       </c>
-      <c r="C6" s="57">
-        <f>B6/$B$4</f>
-        <v/>
-      </c>
-      <c r="D6" s="16" t="n">
+      <c r="C6" s="21">
+        <f t="shared" si="0"/>
+        <v>9.8106712564543889E-3</v>
+      </c>
+      <c r="D6" s="5">
         <v>32</v>
       </c>
-      <c r="E6" s="57">
-        <f>D6/$B$4</f>
-        <v/>
-      </c>
-      <c r="F6" s="16" t="n">
+      <c r="E6" s="21">
+        <f t="shared" si="0"/>
+        <v>5.5077452667814117E-3</v>
+      </c>
+      <c r="F6" s="5">
         <v>25</v>
       </c>
-      <c r="G6" s="57">
-        <f>F6/$B$4</f>
-        <v/>
+      <c r="G6" s="21">
+        <f t="shared" ref="G6" si="2">F6/$B$4</f>
+        <v>4.3029259896729772E-3</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>Funcionariado interino</t>
-        </is>
-      </c>
-      <c r="B7" s="15" t="n">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="15">
         <v>1796</v>
       </c>
-      <c r="C7" s="55">
-        <f>B7/$B$4</f>
-        <v/>
-      </c>
-      <c r="D7" s="15" t="n">
+      <c r="C7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.30912220309810673</v>
+      </c>
+      <c r="D7" s="15">
         <v>513</v>
       </c>
-      <c r="E7" s="55">
-        <f>D7/$B$4</f>
-        <v/>
-      </c>
-      <c r="F7" s="15" t="n">
+      <c r="E7" s="22">
+        <f t="shared" si="0"/>
+        <v>8.8296041308089504E-2</v>
+      </c>
+      <c r="F7" s="15">
         <v>1283</v>
       </c>
-      <c r="G7" s="55">
-        <f>F7/$B$4</f>
-        <v/>
+      <c r="G7" s="22">
+        <f t="shared" ref="G7" si="3">F7/$B$4</f>
+        <v>0.22082616179001721</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>Personal laboral</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="n">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
         <v>591</v>
       </c>
-      <c r="C8" s="57">
-        <f>B8/$B$4</f>
-        <v/>
-      </c>
-      <c r="D8" s="16" t="n">
+      <c r="C8" s="21">
+        <f t="shared" si="0"/>
+        <v>0.10172117039586918</v>
+      </c>
+      <c r="D8" s="5">
         <v>197</v>
       </c>
-      <c r="E8" s="57">
-        <f>D8/$B$4</f>
-        <v/>
-      </c>
-      <c r="F8" s="16" t="n">
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>3.3907056798623061E-2</v>
+      </c>
+      <c r="F8" s="5">
         <v>394</v>
       </c>
-      <c r="G8" s="57">
-        <f>F8/$B$4</f>
-        <v/>
+      <c r="G8" s="21">
+        <f t="shared" ref="G8" si="4">F8/$B$4</f>
+        <v>6.7814113597246123E-2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Nota: Personal Municipal a 1 de julio de 2024</t>
-        </is>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Elaboración Oficina de Estadística a partir del fichero de personal municipal. Ayuntamiento de València.</t>
-        </is>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja19">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="53.7109375" customWidth="1" min="1" max="1"/>
-    <col width="7.140625" customWidth="1" min="2" max="7"/>
-    <col width="7.5703125" customWidth="1" min="8" max="8"/>
-    <col width="7.140625" customWidth="1" min="9" max="10"/>
+    <col min="1" max="1" width="53.7109375" customWidth="1"/>
+    <col min="2" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="10" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>5. Personal municipal según área y grupo de titulación del puesto de trabajo. 2024</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="n"/>
-      <c r="C1" s="10" t="n"/>
-      <c r="D1" s="10" t="n"/>
-      <c r="E1" s="10" t="n"/>
-      <c r="F1" s="10" t="n"/>
-      <c r="G1" s="10" t="n"/>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="7" t="n"/>
-      <c r="C2" s="7" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="7" t="n"/>
-      <c r="F2" s="7" t="n"/>
-      <c r="G2" s="7" t="n"/>
-      <c r="H2" s="7" t="n"/>
-      <c r="I2" s="7" t="n"/>
-      <c r="J2" s="7" t="n"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" ht="31.15" customHeight="1">
-      <c r="A3" s="47" t="n"/>
-      <c r="B3" s="19" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="19" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="D3" s="19" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="E3" s="19" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F3" s="19" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="G3" s="19" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="H3" s="19" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="I3" s="19" t="inlineStr">
-        <is>
-          <t>FE</t>
-        </is>
-      </c>
-      <c r="J3" s="19" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
+    <row r="3" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="44" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="42" t="n">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="42">
         <v>5810</v>
       </c>
-      <c r="C4" s="42" t="n">
+      <c r="C4" s="42">
         <v>771</v>
       </c>
-      <c r="D4" s="42" t="n">
+      <c r="D4" s="42">
         <v>706</v>
       </c>
-      <c r="E4" s="42" t="n">
+      <c r="E4" s="42">
         <v>339</v>
       </c>
-      <c r="F4" s="42" t="n">
+      <c r="F4" s="42">
         <v>1910</v>
       </c>
-      <c r="G4" s="42" t="n">
+      <c r="G4" s="42">
         <v>945</v>
       </c>
-      <c r="H4" s="42" t="n">
+      <c r="H4" s="42">
         <v>491</v>
       </c>
-      <c r="I4" s="42" t="n">
+      <c r="I4" s="42">
         <v>57</v>
       </c>
-      <c r="J4" s="42" t="n">
+      <c r="J4" s="42">
         <v>591</v>
       </c>
-      <c r="K4" s="34" t="n"/>
+      <c r="K4" s="34"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>Alcaldía</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="n">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="15">
         <v>214</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="15">
         <v>92</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="15">
         <v>19</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" s="15">
         <v>2</v>
       </c>
-      <c r="F5" s="15" t="n">
+      <c r="F5" s="15">
         <v>15</v>
       </c>
-      <c r="G5" s="15" t="n">
+      <c r="G5" s="15">
         <v>53</v>
       </c>
-      <c r="H5" s="15" t="n">
+      <c r="H5" s="15">
         <v>8</v>
       </c>
-      <c r="I5" s="15" t="n">
+      <c r="I5" s="15">
         <v>0</v>
       </c>
-      <c r="J5" s="15" t="n">
+      <c r="J5" s="15">
         <v>25</v>
       </c>
-      <c r="K5" s="34" t="n"/>
+      <c r="K5" s="34"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>Cultura, Educación, Deportes y Fallas</t>
-        </is>
-      </c>
-      <c r="B6" s="16" t="n">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="5">
         <v>834</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="5">
         <v>182</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="5">
         <v>149</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="16" t="n">
+      <c r="F6" s="5">
         <v>67</v>
       </c>
-      <c r="G6" s="16" t="n">
+      <c r="G6" s="5">
         <v>73</v>
       </c>
-      <c r="H6" s="16" t="n">
+      <c r="H6" s="5">
         <v>299</v>
       </c>
-      <c r="I6" s="16" t="n">
+      <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="16" t="n">
+      <c r="J6" s="5">
         <v>64</v>
       </c>
-      <c r="K6" s="34" t="n"/>
+      <c r="K6" s="34"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>Hacienda y Participación</t>
-        </is>
-      </c>
-      <c r="B7" s="15" t="n">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="15">
         <v>597</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="15">
         <v>138</v>
       </c>
-      <c r="D7" s="15" t="n">
+      <c r="D7" s="15">
         <v>22</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="15">
         <v>0</v>
       </c>
-      <c r="F7" s="15" t="n">
+      <c r="F7" s="15">
         <v>50</v>
       </c>
-      <c r="G7" s="15" t="n">
+      <c r="G7" s="15">
         <v>280</v>
       </c>
-      <c r="H7" s="15" t="n">
+      <c r="H7" s="15">
         <v>17</v>
       </c>
-      <c r="I7" s="15" t="n">
+      <c r="I7" s="15">
         <v>0</v>
       </c>
-      <c r="J7" s="15" t="n">
+      <c r="J7" s="15">
         <v>90</v>
       </c>
-      <c r="K7" s="34" t="n"/>
+      <c r="K7" s="34"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>Ocupación, Formación y Emprendimiento</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="n">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="5">
         <v>134</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="5">
         <v>13</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="5">
         <v>4</v>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="16" t="n">
+      <c r="F8" s="5">
         <v>2</v>
       </c>
-      <c r="G8" s="16" t="n">
+      <c r="G8" s="5">
         <v>4</v>
       </c>
-      <c r="H8" s="16" t="n">
+      <c r="H8" s="5">
         <v>5</v>
       </c>
-      <c r="I8" s="16" t="n">
+      <c r="I8" s="5">
         <v>0</v>
       </c>
-      <c r="J8" s="16" t="n">
+      <c r="J8" s="5">
         <v>106</v>
       </c>
-      <c r="K8" s="34" t="n"/>
+      <c r="K8" s="34"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="12" t="inlineStr">
-        <is>
-          <t>Urbanismo, Vivienda y Licencias</t>
-        </is>
-      </c>
-      <c r="B9" s="15" t="n">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="15">
         <v>301</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="C9" s="15">
         <v>77</v>
       </c>
-      <c r="D9" s="15" t="n">
+      <c r="D9" s="15">
         <v>54</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="15">
         <v>0</v>
       </c>
-      <c r="F9" s="15" t="n">
+      <c r="F9" s="15">
         <v>43</v>
       </c>
-      <c r="G9" s="15" t="n">
+      <c r="G9" s="15">
         <v>105</v>
       </c>
-      <c r="H9" s="15" t="n">
+      <c r="H9" s="15">
         <v>6</v>
       </c>
-      <c r="I9" s="15" t="n">
+      <c r="I9" s="15">
         <v>0</v>
       </c>
-      <c r="J9" s="15" t="n">
+      <c r="J9" s="15">
         <v>16</v>
       </c>
-      <c r="K9" s="34" t="n"/>
+      <c r="K9" s="34"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="9" t="inlineStr">
-        <is>
-          <t>Bienestar Social</t>
-        </is>
-      </c>
-      <c r="B10" s="16" t="n">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="16">
         <v>648</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="16">
         <v>71</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="16">
         <v>272</v>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="16">
         <v>57</v>
       </c>
-      <c r="F10" s="16" t="n">
+      <c r="F10" s="16">
         <v>36</v>
       </c>
-      <c r="G10" s="16" t="n">
+      <c r="G10" s="16">
         <v>113</v>
       </c>
-      <c r="H10" s="16" t="n">
+      <c r="H10" s="16">
         <v>40</v>
       </c>
-      <c r="I10" s="16" t="n">
+      <c r="I10" s="16">
         <v>0</v>
       </c>
-      <c r="J10" s="16" t="n">
+      <c r="J10" s="16">
         <v>59</v>
       </c>
-      <c r="K10" s="34" t="n"/>
+      <c r="K10" s="34"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="12" t="inlineStr">
-        <is>
-          <t>Familia, Mayores y Tradiciones</t>
-        </is>
-      </c>
-      <c r="B11" s="15" t="n">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="15">
         <v>224</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="15">
         <v>37</v>
       </c>
-      <c r="D11" s="15" t="n">
+      <c r="D11" s="15">
         <v>10</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E11" s="15">
         <v>0</v>
       </c>
-      <c r="F11" s="15" t="n">
+      <c r="F11" s="15">
         <v>17</v>
       </c>
-      <c r="G11" s="15" t="n">
+      <c r="G11" s="15">
         <v>34</v>
       </c>
-      <c r="H11" s="15" t="n">
+      <c r="H11" s="15">
         <v>29</v>
       </c>
-      <c r="I11" s="15" t="n">
+      <c r="I11" s="15">
         <v>0</v>
       </c>
-      <c r="J11" s="15" t="n">
+      <c r="J11" s="15">
         <v>97</v>
       </c>
-      <c r="K11" s="34" t="n"/>
+      <c r="K11" s="34"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>Parques, Jardines y Espacios Naturales</t>
-        </is>
-      </c>
-      <c r="B12" s="16" t="n">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="16">
         <v>99</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="16">
         <v>19</v>
       </c>
-      <c r="D12" s="16" t="n">
+      <c r="D12" s="16">
         <v>9</v>
       </c>
-      <c r="E12" s="16" t="n">
+      <c r="E12" s="16">
         <v>0</v>
       </c>
-      <c r="F12" s="16" t="n">
+      <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="16" t="n">
+      <c r="G12" s="16">
         <v>20</v>
       </c>
-      <c r="H12" s="16" t="n">
+      <c r="H12" s="16">
         <v>29</v>
       </c>
-      <c r="I12" s="16" t="n">
+      <c r="I12" s="16">
         <v>0</v>
       </c>
-      <c r="J12" s="16" t="n">
+      <c r="J12" s="16">
         <v>18</v>
       </c>
-      <c r="K12" s="34" t="n"/>
+      <c r="K12" s="34"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="12" t="inlineStr">
-        <is>
-          <t>Seguridad y Movilidad</t>
-        </is>
-      </c>
-      <c r="B13" s="15" t="n">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="15">
         <v>2161</v>
       </c>
-      <c r="C13" s="15" t="n">
+      <c r="C13" s="15">
         <v>44</v>
       </c>
-      <c r="D13" s="15" t="n">
+      <c r="D13" s="15">
         <v>100</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="15">
         <v>280</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="15">
         <v>1615</v>
       </c>
-      <c r="G13" s="15" t="n">
+      <c r="G13" s="15">
         <v>68</v>
       </c>
-      <c r="H13" s="15" t="n">
+      <c r="H13" s="15">
         <v>36</v>
       </c>
-      <c r="I13" s="15" t="n">
+      <c r="I13" s="15">
         <v>0</v>
       </c>
-      <c r="J13" s="15" t="n">
+      <c r="J13" s="15">
         <v>18</v>
       </c>
-      <c r="K13" s="34" t="n"/>
+      <c r="K13" s="34"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>Prevención y extinción de incendios</t>
-        </is>
-      </c>
-      <c r="B14" s="16" t="n">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="16">
         <v>466</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="16">
         <v>10</v>
       </c>
-      <c r="D14" s="16" t="n">
+      <c r="D14" s="16">
         <v>12</v>
       </c>
-      <c r="E14" s="16" t="n">
+      <c r="E14" s="16">
         <v>107</v>
       </c>
-      <c r="F14" s="16" t="n">
+      <c r="F14" s="16">
         <v>327</v>
       </c>
-      <c r="G14" s="16" t="n">
+      <c r="G14" s="16">
         <v>8</v>
       </c>
-      <c r="H14" s="16" t="n">
+      <c r="H14" s="16">
         <v>0</v>
       </c>
-      <c r="I14" s="16" t="n">
+      <c r="I14" s="16">
         <v>0</v>
       </c>
-      <c r="J14" s="16" t="n">
+      <c r="J14" s="16">
         <v>2</v>
       </c>
-      <c r="K14" s="34" t="n"/>
+      <c r="K14" s="34"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>Policía local</t>
-        </is>
-      </c>
-      <c r="B15" s="15" t="n">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="15">
         <v>1556</v>
       </c>
-      <c r="C15" s="15" t="n">
+      <c r="C15" s="15">
         <v>20</v>
       </c>
-      <c r="D15" s="15" t="n">
+      <c r="D15" s="15">
         <v>71</v>
       </c>
-      <c r="E15" s="15" t="n">
+      <c r="E15" s="15">
         <v>173</v>
       </c>
-      <c r="F15" s="15" t="n">
+      <c r="F15" s="15">
         <v>1260</v>
       </c>
-      <c r="G15" s="15" t="n">
+      <c r="G15" s="15">
         <v>22</v>
       </c>
-      <c r="H15" s="15" t="n">
+      <c r="H15" s="15">
         <v>2</v>
       </c>
-      <c r="I15" s="15" t="n">
+      <c r="I15" s="15">
         <v>0</v>
       </c>
-      <c r="J15" s="15" t="n">
+      <c r="J15" s="15">
         <v>8</v>
       </c>
-      <c r="K15" s="34" t="n"/>
+      <c r="K15" s="34"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="9" t="inlineStr">
-        <is>
-          <t>Patrimonio, Recursos Humanos y Técnicos</t>
-        </is>
-      </c>
-      <c r="B16" s="16" t="n">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="16">
         <v>393</v>
       </c>
-      <c r="C16" s="16" t="n">
+      <c r="C16" s="16">
         <v>72</v>
       </c>
-      <c r="D16" s="16" t="n">
+      <c r="D16" s="16">
         <v>54</v>
       </c>
-      <c r="E16" s="16" t="n">
+      <c r="E16" s="16">
         <v>0</v>
       </c>
-      <c r="F16" s="16" t="n">
+      <c r="F16" s="16">
         <v>35</v>
       </c>
-      <c r="G16" s="16" t="n">
+      <c r="G16" s="16">
         <v>125</v>
       </c>
-      <c r="H16" s="16" t="n">
+      <c r="H16" s="16">
         <v>16</v>
       </c>
-      <c r="I16" s="16" t="n">
+      <c r="I16" s="16">
         <v>0</v>
       </c>
-      <c r="J16" s="16" t="n">
+      <c r="J16" s="16">
         <v>91</v>
       </c>
-      <c r="K16" s="34" t="n"/>
+      <c r="K16" s="34"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="12" t="inlineStr">
-        <is>
-          <t>Residuos, Mejora Climática y Gestión del Agua</t>
-        </is>
-      </c>
-      <c r="B17" s="15" t="n">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="15">
         <v>95</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="15">
         <v>22</v>
       </c>
-      <c r="D17" s="15" t="n">
+      <c r="D17" s="15">
         <v>13</v>
       </c>
-      <c r="E17" s="15" t="n">
+      <c r="E17" s="15">
         <v>0</v>
       </c>
-      <c r="F17" s="15" t="n">
+      <c r="F17" s="15">
         <v>20</v>
       </c>
-      <c r="G17" s="15" t="n">
+      <c r="G17" s="15">
         <v>31</v>
       </c>
-      <c r="H17" s="15" t="n">
+      <c r="H17" s="15">
         <v>3</v>
       </c>
-      <c r="I17" s="15" t="n">
+      <c r="I17" s="15">
         <v>0</v>
       </c>
-      <c r="J17" s="15" t="n">
+      <c r="J17" s="15">
         <v>6</v>
       </c>
-      <c r="K17" s="34" t="n"/>
+      <c r="K17" s="34"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="9" t="inlineStr">
-        <is>
-          <t>Pleno</t>
-        </is>
-      </c>
-      <c r="B18" s="16" t="n">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="16">
         <v>110</v>
       </c>
-      <c r="C18" s="16" t="n">
+      <c r="C18" s="16">
         <v>4</v>
       </c>
-      <c r="D18" s="16" t="n">
+      <c r="D18" s="16">
         <v>0</v>
       </c>
-      <c r="E18" s="16" t="n">
+      <c r="E18" s="16">
         <v>0</v>
       </c>
-      <c r="F18" s="16" t="n">
+      <c r="F18" s="16">
         <v>6</v>
       </c>
-      <c r="G18" s="16" t="n">
+      <c r="G18" s="16">
         <v>39</v>
       </c>
-      <c r="H18" s="16" t="n">
+      <c r="H18" s="16">
         <v>3</v>
       </c>
-      <c r="I18" s="16" t="n">
+      <c r="I18" s="16">
         <v>57</v>
       </c>
-      <c r="J18" s="16" t="n">
+      <c r="J18" s="16">
         <v>1</v>
       </c>
-      <c r="K18" s="34" t="n"/>
+      <c r="K18" s="34"/>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>Nota: FE: Funcionario de empleo, PL: Personal laboral. Personal Municipal a 1 de julio de 2024</t>
-        </is>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Elaboración Oficina de Estadística a partir del fichero de personal municipal. Ayuntamiento de València.</t>
-        </is>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="82" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja20">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A6:D13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="30" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="30" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="30" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="30" min="4" max="16384"/>
+    <col min="1" max="1" width="5.5703125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="31"/>
-    <row r="6">
-      <c r="A6" s="31" t="n"/>
-      <c r="B6" s="31" t="n"/>
-      <c r="C6" s="31" t="n"/>
-      <c r="D6" s="7" t="n"/>
+    <row r="1" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="7"/>
     </row>
-    <row r="7">
-      <c r="D7" s="7" t="n"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="7"/>
     </row>
-    <row r="8">
-      <c r="D8" s="17" t="n"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="17"/>
     </row>
-    <row r="9">
-      <c r="D9" s="17" t="n"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="17"/>
     </row>
-    <row r="10">
-      <c r="D10" s="7" t="n"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="7"/>
     </row>
-    <row r="11">
-      <c r="D11" s="7" t="n"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="7"/>
     </row>
-    <row r="12">
-      <c r="D12" s="7" t="n"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="7"/>
     </row>
-    <row r="13">
-      <c r="D13" s="7" t="n"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>